--- a/2021年_テトリス/00_WBS/マイルストーン_2022年.xlsx
+++ b/2021年_テトリス/00_WBS/マイルストーン_2022年.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iwasuji/document/2021年_テトリス/00_WBS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/00_WBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB94639C-312A-3249-9453-A5EB613B6CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF17E0-074F-734D-9D4F-0753333B3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" activeTab="2" xr2:uid="{E44E61D5-ABC8-5643-99A4-FB7AAE6F5200}"/>
+    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{E44E61D5-ABC8-5643-99A4-FB7AAE6F5200}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
     <sheet name="改訂履歴" sheetId="3" r:id="rId2"/>
-    <sheet name="マイルストーン" sheetId="1" r:id="rId3"/>
+    <sheet name="マイルストーン" sheetId="5" r:id="rId3"/>
+    <sheet name="旧マイルストーン20221001" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヘッダー!$A$1:$AY$3</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="40">
   <si>
     <t>要件定義</t>
     <rPh sb="0" eb="2">
@@ -282,6 +283,29 @@
     <t>マイルストーン</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>遠山</t>
+    <rPh sb="0" eb="2">
+      <t>トオヤｍア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・元々の「マイルストーン」シートを「旧マイルストーン20221001」にリネーム
+・旧マイルストーンを複製して「マイルストーン」シート作成
+・2022/3からの予定を2022/10からに予定をずらすし記載。
+・2022/3-2022/9に青枠の吹き出しで遅延理由を記載。
+・2023/4からの予定を未定として、黄色枠で理由を記載。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -444,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="68">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1325,6 +1349,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1334,7 +1490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1758,108 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1647,33 +1905,6 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1701,18 +1932,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1725,89 +1977,152 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1862,7 +2177,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3102"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3217"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1888,6 +2203,358 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>10240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>266290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>430161</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>153628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961D3F77-BF33-F114-60C0-8F666D63FBAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3103305" y="1147096"/>
+          <a:ext cx="3062340" cy="7138629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="82000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>遅延</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>】202203-202209</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>主に想定していない作業が発生、遅延</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月から基本設計レビューの修正から再スタート</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>理由</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>firebase</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を導入時、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>flutter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バージョンが古いため動かなくなる事象が発生、原因調査・修正をおこなった。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・今まで使っていたライブラリが使用不可になったこと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(audioplayers)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>でソースから使用になったライブラリを排除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・メンバー間の開発環境のバージョン違いが発生していたので、環境を揃えて開発を行うために一旦環境を再構築してバージョンを合わせた。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・予定があわず定期的に作業ができず作業が遅れた。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>10242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>491613</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>184353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3010DEAB-3BE0-2943-B3BA-33E4A2F8C1CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8879758" y="4352823"/>
+          <a:ext cx="5377016" cy="4004595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="82000"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>未定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PH2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>に関しては、継続は検討。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>今回のテトリスに関しては、リリースまでやってみる経験が目的なため</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PH2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>までやるとだいぶ先まで開発をすることになる。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>それとも別のプロジェクトをやるのかなども含め、継続するかメンバー間で検討が必要。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2194,7 +2861,7 @@
   <dimension ref="A1:BA4"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2:AY3"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.85546875" defaultRowHeight="15"/>
@@ -2203,187 +2870,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="89" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="89" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="89" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="124"/>
+      <c r="Y1" s="124"/>
+      <c r="Z1" s="124"/>
+      <c r="AA1" s="124"/>
+      <c r="AB1" s="124"/>
+      <c r="AC1" s="124"/>
+      <c r="AD1" s="124"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="89" t="s">
+      <c r="AG1" s="124"/>
+      <c r="AH1" s="124"/>
+      <c r="AI1" s="124"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="89" t="s">
+      <c r="AL1" s="124"/>
+      <c r="AM1" s="124"/>
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="89" t="s">
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="91"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="124"/>
+      <c r="AX1" s="124"/>
+      <c r="AY1" s="125"/>
       <c r="BA1" s="78"/>
     </row>
     <row r="2" spans="1:53" ht="15" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="92" t="s">
+      <c r="A2" s="117"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="92" t="s">
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
+      <c r="K2" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="98">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
+      <c r="AA2" s="127"/>
+      <c r="AB2" s="127"/>
+      <c r="AC2" s="127"/>
+      <c r="AD2" s="127"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="132">
         <v>44591</v>
       </c>
-      <c r="AG2" s="99"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="99"/>
-      <c r="AJ2" s="100"/>
-      <c r="AK2" s="92" t="s">
+      <c r="AG2" s="133"/>
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="133"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="93"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="93"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="98"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="99"/>
-      <c r="AS2" s="99"/>
-      <c r="AT2" s="100"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="93"/>
-      <c r="AW2" s="93"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="94"/>
+      <c r="AL2" s="127"/>
+      <c r="AM2" s="127"/>
+      <c r="AN2" s="127"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="132">
+        <v>44835</v>
+      </c>
+      <c r="AQ2" s="133"/>
+      <c r="AR2" s="133"/>
+      <c r="AS2" s="133"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV2" s="127"/>
+      <c r="AW2" s="127"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="128"/>
       <c r="BA2" s="78"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="101"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
-      <c r="AS3" s="102"/>
-      <c r="AT3" s="103"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="96"/>
-      <c r="AW3" s="96"/>
-      <c r="AX3" s="96"/>
-      <c r="AY3" s="97"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="136"/>
+      <c r="AH3" s="136"/>
+      <c r="AI3" s="136"/>
+      <c r="AJ3" s="137"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="136"/>
+      <c r="AR3" s="136"/>
+      <c r="AS3" s="136"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="129"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="131"/>
       <c r="BA3" s="78"/>
     </row>
     <row r="4" spans="1:53" ht="15" customHeight="1">
@@ -2395,11 +3066,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="F2:J3"/>
     <mergeCell ref="K2:AE3"/>
@@ -2408,6 +3074,11 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AU2:AY3"/>
     <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,121 +3178,129 @@
         <v>1</v>
       </c>
       <c r="B8" s="88"/>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="116">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="141">
         <v>44591</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="119" t="s">
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="119" t="s">
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="120"/>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="120"/>
-      <c r="AH8" s="120"/>
-      <c r="AI8" s="120"/>
-      <c r="AJ8" s="120"/>
-      <c r="AK8" s="120"/>
-      <c r="AL8" s="121"/>
-      <c r="AM8" s="119"/>
-      <c r="AN8" s="120"/>
-      <c r="AO8" s="120"/>
-      <c r="AP8" s="120"/>
-      <c r="AQ8" s="120"/>
-      <c r="AR8" s="120"/>
-      <c r="AS8" s="120"/>
-      <c r="AT8" s="120"/>
-      <c r="AU8" s="120"/>
-      <c r="AV8" s="120"/>
-      <c r="AW8" s="120"/>
-      <c r="AX8" s="120"/>
-      <c r="AY8" s="120"/>
-      <c r="AZ8" s="121"/>
-    </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="87" t="str">
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
+      <c r="AK8" s="145"/>
+      <c r="AL8" s="146"/>
+      <c r="AM8" s="144"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="145"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="145"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="146"/>
+    </row>
+    <row r="9" spans="1:52" ht="95" customHeight="1">
+      <c r="A9" s="87">
         <f>IF(G9="","",ROW()-7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="B9" s="88"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="119"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="119"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="120"/>
-      <c r="AC9" s="120"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="120"/>
-      <c r="AI9" s="120"/>
-      <c r="AJ9" s="120"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="121"/>
-      <c r="AM9" s="119"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="120"/>
-      <c r="AP9" s="120"/>
-      <c r="AQ9" s="120"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="120"/>
-      <c r="AT9" s="120"/>
-      <c r="AU9" s="120"/>
-      <c r="AV9" s="120"/>
-      <c r="AW9" s="120"/>
-      <c r="AX9" s="120"/>
-      <c r="AY9" s="120"/>
-      <c r="AZ9" s="121"/>
+      <c r="C9" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="141">
+        <v>44835</v>
+      </c>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="142"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="210" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="145"/>
+      <c r="AB9" s="145"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="145"/>
+      <c r="AE9" s="145"/>
+      <c r="AF9" s="145"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="145"/>
+      <c r="AI9" s="145"/>
+      <c r="AJ9" s="145"/>
+      <c r="AK9" s="145"/>
+      <c r="AL9" s="146"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="145"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
+      <c r="AS9" s="145"/>
+      <c r="AT9" s="145"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="145"/>
+      <c r="AW9" s="145"/>
+      <c r="AX9" s="145"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="146"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="87" t="str">
@@ -2629,56 +3308,56 @@
         <v/>
       </c>
       <c r="B10" s="88"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="119"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="119"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="120"/>
-      <c r="AH10" s="120"/>
-      <c r="AI10" s="120"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="120"/>
-      <c r="AO10" s="120"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="120"/>
-      <c r="AR10" s="120"/>
-      <c r="AS10" s="120"/>
-      <c r="AT10" s="120"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="120"/>
-      <c r="AW10" s="120"/>
-      <c r="AX10" s="120"/>
-      <c r="AY10" s="120"/>
-      <c r="AZ10" s="121"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="145"/>
+      <c r="W10" s="145"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="145"/>
+      <c r="AD10" s="145"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="145"/>
+      <c r="AK10" s="145"/>
+      <c r="AL10" s="146"/>
+      <c r="AM10" s="144"/>
+      <c r="AN10" s="145"/>
+      <c r="AO10" s="145"/>
+      <c r="AP10" s="145"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="145"/>
+      <c r="AS10" s="145"/>
+      <c r="AT10" s="145"/>
+      <c r="AU10" s="145"/>
+      <c r="AV10" s="145"/>
+      <c r="AW10" s="145"/>
+      <c r="AX10" s="145"/>
+      <c r="AY10" s="145"/>
+      <c r="AZ10" s="146"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="87" t="str">
@@ -2686,56 +3365,56 @@
         <v/>
       </c>
       <c r="B11" s="88"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="119"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="120"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="120"/>
-      <c r="AH11" s="120"/>
-      <c r="AI11" s="120"/>
-      <c r="AJ11" s="120"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="120"/>
-      <c r="AO11" s="120"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="120"/>
-      <c r="AR11" s="120"/>
-      <c r="AS11" s="120"/>
-      <c r="AT11" s="120"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="120"/>
-      <c r="AW11" s="120"/>
-      <c r="AX11" s="120"/>
-      <c r="AY11" s="120"/>
-      <c r="AZ11" s="121"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="145"/>
+      <c r="T11" s="145"/>
+      <c r="U11" s="145"/>
+      <c r="V11" s="145"/>
+      <c r="W11" s="145"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="145"/>
+      <c r="Z11" s="145"/>
+      <c r="AA11" s="145"/>
+      <c r="AB11" s="145"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="145"/>
+      <c r="AE11" s="145"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="145"/>
+      <c r="AH11" s="145"/>
+      <c r="AI11" s="145"/>
+      <c r="AJ11" s="145"/>
+      <c r="AK11" s="145"/>
+      <c r="AL11" s="146"/>
+      <c r="AM11" s="144"/>
+      <c r="AN11" s="145"/>
+      <c r="AO11" s="145"/>
+      <c r="AP11" s="145"/>
+      <c r="AQ11" s="145"/>
+      <c r="AR11" s="145"/>
+      <c r="AS11" s="145"/>
+      <c r="AT11" s="145"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="145"/>
+      <c r="AW11" s="145"/>
+      <c r="AX11" s="145"/>
+      <c r="AY11" s="145"/>
+      <c r="AZ11" s="146"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="87" t="str">
@@ -2743,56 +3422,56 @@
         <v/>
       </c>
       <c r="B12" s="88"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="118"/>
-      <c r="L12" s="119"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="119"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="120"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="120"/>
-      <c r="AH12" s="120"/>
-      <c r="AI12" s="120"/>
-      <c r="AJ12" s="120"/>
-      <c r="AK12" s="120"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="119"/>
-      <c r="AN12" s="120"/>
-      <c r="AO12" s="120"/>
-      <c r="AP12" s="120"/>
-      <c r="AQ12" s="120"/>
-      <c r="AR12" s="120"/>
-      <c r="AS12" s="120"/>
-      <c r="AT12" s="120"/>
-      <c r="AU12" s="120"/>
-      <c r="AV12" s="120"/>
-      <c r="AW12" s="120"/>
-      <c r="AX12" s="120"/>
-      <c r="AY12" s="120"/>
-      <c r="AZ12" s="121"/>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="145"/>
+      <c r="S12" s="145"/>
+      <c r="T12" s="145"/>
+      <c r="U12" s="145"/>
+      <c r="V12" s="145"/>
+      <c r="W12" s="145"/>
+      <c r="X12" s="145"/>
+      <c r="Y12" s="145"/>
+      <c r="Z12" s="145"/>
+      <c r="AA12" s="145"/>
+      <c r="AB12" s="145"/>
+      <c r="AC12" s="145"/>
+      <c r="AD12" s="145"/>
+      <c r="AE12" s="145"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="145"/>
+      <c r="AJ12" s="145"/>
+      <c r="AK12" s="145"/>
+      <c r="AL12" s="146"/>
+      <c r="AM12" s="144"/>
+      <c r="AN12" s="145"/>
+      <c r="AO12" s="145"/>
+      <c r="AP12" s="145"/>
+      <c r="AQ12" s="145"/>
+      <c r="AR12" s="145"/>
+      <c r="AS12" s="145"/>
+      <c r="AT12" s="145"/>
+      <c r="AU12" s="145"/>
+      <c r="AV12" s="145"/>
+      <c r="AW12" s="145"/>
+      <c r="AX12" s="145"/>
+      <c r="AY12" s="145"/>
+      <c r="AZ12" s="146"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="87" t="str">
@@ -2800,56 +3479,56 @@
         <v/>
       </c>
       <c r="B13" s="88"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
-      <c r="L13" s="119"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="119"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="120"/>
-      <c r="AC13" s="120"/>
-      <c r="AD13" s="120"/>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
-      <c r="AG13" s="120"/>
-      <c r="AH13" s="120"/>
-      <c r="AI13" s="120"/>
-      <c r="AJ13" s="120"/>
-      <c r="AK13" s="120"/>
-      <c r="AL13" s="121"/>
-      <c r="AM13" s="119"/>
-      <c r="AN13" s="120"/>
-      <c r="AO13" s="120"/>
-      <c r="AP13" s="120"/>
-      <c r="AQ13" s="120"/>
-      <c r="AR13" s="120"/>
-      <c r="AS13" s="120"/>
-      <c r="AT13" s="120"/>
-      <c r="AU13" s="120"/>
-      <c r="AV13" s="120"/>
-      <c r="AW13" s="120"/>
-      <c r="AX13" s="120"/>
-      <c r="AY13" s="120"/>
-      <c r="AZ13" s="121"/>
+      <c r="C13" s="138"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
+      <c r="X13" s="145"/>
+      <c r="Y13" s="145"/>
+      <c r="Z13" s="145"/>
+      <c r="AA13" s="145"/>
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="145"/>
+      <c r="AE13" s="145"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="145"/>
+      <c r="AH13" s="145"/>
+      <c r="AI13" s="145"/>
+      <c r="AJ13" s="145"/>
+      <c r="AK13" s="145"/>
+      <c r="AL13" s="146"/>
+      <c r="AM13" s="144"/>
+      <c r="AN13" s="145"/>
+      <c r="AO13" s="145"/>
+      <c r="AP13" s="145"/>
+      <c r="AQ13" s="145"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="145"/>
+      <c r="AT13" s="145"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="145"/>
+      <c r="AW13" s="145"/>
+      <c r="AX13" s="145"/>
+      <c r="AY13" s="145"/>
+      <c r="AZ13" s="146"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="87" t="str">
@@ -2857,56 +3536,56 @@
         <v/>
       </c>
       <c r="B14" s="88"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="121"/>
-      <c r="Q14" s="119"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="120"/>
-      <c r="AC14" s="120"/>
-      <c r="AD14" s="120"/>
-      <c r="AE14" s="120"/>
-      <c r="AF14" s="120"/>
-      <c r="AG14" s="120"/>
-      <c r="AH14" s="120"/>
-      <c r="AI14" s="120"/>
-      <c r="AJ14" s="120"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="119"/>
-      <c r="AN14" s="120"/>
-      <c r="AO14" s="120"/>
-      <c r="AP14" s="120"/>
-      <c r="AQ14" s="120"/>
-      <c r="AR14" s="120"/>
-      <c r="AS14" s="120"/>
-      <c r="AT14" s="120"/>
-      <c r="AU14" s="120"/>
-      <c r="AV14" s="120"/>
-      <c r="AW14" s="120"/>
-      <c r="AX14" s="120"/>
-      <c r="AY14" s="120"/>
-      <c r="AZ14" s="121"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
+      <c r="V14" s="145"/>
+      <c r="W14" s="145"/>
+      <c r="X14" s="145"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="145"/>
+      <c r="AA14" s="145"/>
+      <c r="AB14" s="145"/>
+      <c r="AC14" s="145"/>
+      <c r="AD14" s="145"/>
+      <c r="AE14" s="145"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="145"/>
+      <c r="AH14" s="145"/>
+      <c r="AI14" s="145"/>
+      <c r="AJ14" s="145"/>
+      <c r="AK14" s="145"/>
+      <c r="AL14" s="146"/>
+      <c r="AM14" s="144"/>
+      <c r="AN14" s="145"/>
+      <c r="AO14" s="145"/>
+      <c r="AP14" s="145"/>
+      <c r="AQ14" s="145"/>
+      <c r="AR14" s="145"/>
+      <c r="AS14" s="145"/>
+      <c r="AT14" s="145"/>
+      <c r="AU14" s="145"/>
+      <c r="AV14" s="145"/>
+      <c r="AW14" s="145"/>
+      <c r="AX14" s="145"/>
+      <c r="AY14" s="145"/>
+      <c r="AZ14" s="146"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="87" t="str">
@@ -2914,56 +3593,56 @@
         <v/>
       </c>
       <c r="B15" s="88"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="121"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="120"/>
-      <c r="AC15" s="120"/>
-      <c r="AD15" s="120"/>
-      <c r="AE15" s="120"/>
-      <c r="AF15" s="120"/>
-      <c r="AG15" s="120"/>
-      <c r="AH15" s="120"/>
-      <c r="AI15" s="120"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="120"/>
-      <c r="AL15" s="121"/>
-      <c r="AM15" s="119"/>
-      <c r="AN15" s="120"/>
-      <c r="AO15" s="120"/>
-      <c r="AP15" s="120"/>
-      <c r="AQ15" s="120"/>
-      <c r="AR15" s="120"/>
-      <c r="AS15" s="120"/>
-      <c r="AT15" s="120"/>
-      <c r="AU15" s="120"/>
-      <c r="AV15" s="120"/>
-      <c r="AW15" s="120"/>
-      <c r="AX15" s="120"/>
-      <c r="AY15" s="120"/>
-      <c r="AZ15" s="121"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
+      <c r="U15" s="145"/>
+      <c r="V15" s="145"/>
+      <c r="W15" s="145"/>
+      <c r="X15" s="145"/>
+      <c r="Y15" s="145"/>
+      <c r="Z15" s="145"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
+      <c r="AC15" s="145"/>
+      <c r="AD15" s="145"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="145"/>
+      <c r="AH15" s="145"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="145"/>
+      <c r="AK15" s="145"/>
+      <c r="AL15" s="146"/>
+      <c r="AM15" s="144"/>
+      <c r="AN15" s="145"/>
+      <c r="AO15" s="145"/>
+      <c r="AP15" s="145"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="145"/>
+      <c r="AT15" s="145"/>
+      <c r="AU15" s="145"/>
+      <c r="AV15" s="145"/>
+      <c r="AW15" s="145"/>
+      <c r="AX15" s="145"/>
+      <c r="AY15" s="145"/>
+      <c r="AZ15" s="146"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="87" t="str">
@@ -2971,56 +3650,56 @@
         <v/>
       </c>
       <c r="B16" s="88"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="121"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="120"/>
-      <c r="AC16" s="120"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="120"/>
-      <c r="AL16" s="121"/>
-      <c r="AM16" s="119"/>
-      <c r="AN16" s="120"/>
-      <c r="AO16" s="120"/>
-      <c r="AP16" s="120"/>
-      <c r="AQ16" s="120"/>
-      <c r="AR16" s="120"/>
-      <c r="AS16" s="120"/>
-      <c r="AT16" s="120"/>
-      <c r="AU16" s="120"/>
-      <c r="AV16" s="120"/>
-      <c r="AW16" s="120"/>
-      <c r="AX16" s="120"/>
-      <c r="AY16" s="120"/>
-      <c r="AZ16" s="121"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
+      <c r="V16" s="145"/>
+      <c r="W16" s="145"/>
+      <c r="X16" s="145"/>
+      <c r="Y16" s="145"/>
+      <c r="Z16" s="145"/>
+      <c r="AA16" s="145"/>
+      <c r="AB16" s="145"/>
+      <c r="AC16" s="145"/>
+      <c r="AD16" s="145"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="145"/>
+      <c r="AH16" s="145"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="145"/>
+      <c r="AK16" s="145"/>
+      <c r="AL16" s="146"/>
+      <c r="AM16" s="144"/>
+      <c r="AN16" s="145"/>
+      <c r="AO16" s="145"/>
+      <c r="AP16" s="145"/>
+      <c r="AQ16" s="145"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="145"/>
+      <c r="AT16" s="145"/>
+      <c r="AU16" s="145"/>
+      <c r="AV16" s="145"/>
+      <c r="AW16" s="145"/>
+      <c r="AX16" s="145"/>
+      <c r="AY16" s="145"/>
+      <c r="AZ16" s="146"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="87" t="str">
@@ -3028,56 +3707,56 @@
         <v/>
       </c>
       <c r="B17" s="88"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="118"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="120"/>
-      <c r="AC17" s="120"/>
-      <c r="AD17" s="120"/>
-      <c r="AE17" s="120"/>
-      <c r="AF17" s="120"/>
-      <c r="AG17" s="120"/>
-      <c r="AH17" s="120"/>
-      <c r="AI17" s="120"/>
-      <c r="AJ17" s="120"/>
-      <c r="AK17" s="120"/>
-      <c r="AL17" s="121"/>
-      <c r="AM17" s="119"/>
-      <c r="AN17" s="120"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
-      <c r="AR17" s="120"/>
-      <c r="AS17" s="120"/>
-      <c r="AT17" s="120"/>
-      <c r="AU17" s="120"/>
-      <c r="AV17" s="120"/>
-      <c r="AW17" s="120"/>
-      <c r="AX17" s="120"/>
-      <c r="AY17" s="120"/>
-      <c r="AZ17" s="121"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="145"/>
+      <c r="S17" s="145"/>
+      <c r="T17" s="145"/>
+      <c r="U17" s="145"/>
+      <c r="V17" s="145"/>
+      <c r="W17" s="145"/>
+      <c r="X17" s="145"/>
+      <c r="Y17" s="145"/>
+      <c r="Z17" s="145"/>
+      <c r="AA17" s="145"/>
+      <c r="AB17" s="145"/>
+      <c r="AC17" s="145"/>
+      <c r="AD17" s="145"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="145"/>
+      <c r="AH17" s="145"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="145"/>
+      <c r="AK17" s="145"/>
+      <c r="AL17" s="146"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="145"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="145"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="145"/>
+      <c r="AT17" s="145"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="145"/>
+      <c r="AW17" s="145"/>
+      <c r="AX17" s="145"/>
+      <c r="AY17" s="145"/>
+      <c r="AZ17" s="146"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="87" t="str">
@@ -3085,56 +3764,56 @@
         <v/>
       </c>
       <c r="B18" s="88"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="120"/>
-      <c r="AC18" s="120"/>
-      <c r="AD18" s="120"/>
-      <c r="AE18" s="120"/>
-      <c r="AF18" s="120"/>
-      <c r="AG18" s="120"/>
-      <c r="AH18" s="120"/>
-      <c r="AI18" s="120"/>
-      <c r="AJ18" s="120"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="119"/>
-      <c r="AN18" s="120"/>
-      <c r="AO18" s="120"/>
-      <c r="AP18" s="120"/>
-      <c r="AQ18" s="120"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="120"/>
-      <c r="AT18" s="120"/>
-      <c r="AU18" s="120"/>
-      <c r="AV18" s="120"/>
-      <c r="AW18" s="120"/>
-      <c r="AX18" s="120"/>
-      <c r="AY18" s="120"/>
-      <c r="AZ18" s="121"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
+      <c r="T18" s="145"/>
+      <c r="U18" s="145"/>
+      <c r="V18" s="145"/>
+      <c r="W18" s="145"/>
+      <c r="X18" s="145"/>
+      <c r="Y18" s="145"/>
+      <c r="Z18" s="145"/>
+      <c r="AA18" s="145"/>
+      <c r="AB18" s="145"/>
+      <c r="AC18" s="145"/>
+      <c r="AD18" s="145"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="145"/>
+      <c r="AH18" s="145"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="145"/>
+      <c r="AK18" s="145"/>
+      <c r="AL18" s="146"/>
+      <c r="AM18" s="144"/>
+      <c r="AN18" s="145"/>
+      <c r="AO18" s="145"/>
+      <c r="AP18" s="145"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="145"/>
+      <c r="AT18" s="145"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="145"/>
+      <c r="AW18" s="145"/>
+      <c r="AX18" s="145"/>
+      <c r="AY18" s="145"/>
+      <c r="AZ18" s="146"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="87" t="str">
@@ -3142,56 +3821,56 @@
         <v/>
       </c>
       <c r="B19" s="88"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="118"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="120"/>
-      <c r="AC19" s="120"/>
-      <c r="AD19" s="120"/>
-      <c r="AE19" s="120"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="120"/>
-      <c r="AH19" s="120"/>
-      <c r="AI19" s="120"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="120"/>
-      <c r="AO19" s="120"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="120"/>
-      <c r="AR19" s="120"/>
-      <c r="AS19" s="120"/>
-      <c r="AT19" s="120"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="120"/>
-      <c r="AW19" s="120"/>
-      <c r="AX19" s="120"/>
-      <c r="AY19" s="120"/>
-      <c r="AZ19" s="121"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
+      <c r="T19" s="145"/>
+      <c r="U19" s="145"/>
+      <c r="V19" s="145"/>
+      <c r="W19" s="145"/>
+      <c r="X19" s="145"/>
+      <c r="Y19" s="145"/>
+      <c r="Z19" s="145"/>
+      <c r="AA19" s="145"/>
+      <c r="AB19" s="145"/>
+      <c r="AC19" s="145"/>
+      <c r="AD19" s="145"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="145"/>
+      <c r="AH19" s="145"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="145"/>
+      <c r="AK19" s="145"/>
+      <c r="AL19" s="146"/>
+      <c r="AM19" s="144"/>
+      <c r="AN19" s="145"/>
+      <c r="AO19" s="145"/>
+      <c r="AP19" s="145"/>
+      <c r="AQ19" s="145"/>
+      <c r="AR19" s="145"/>
+      <c r="AS19" s="145"/>
+      <c r="AT19" s="145"/>
+      <c r="AU19" s="145"/>
+      <c r="AV19" s="145"/>
+      <c r="AW19" s="145"/>
+      <c r="AX19" s="145"/>
+      <c r="AY19" s="145"/>
+      <c r="AZ19" s="146"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="87" t="str">
@@ -3199,56 +3878,56 @@
         <v/>
       </c>
       <c r="B20" s="88"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="118"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="120"/>
-      <c r="AC20" s="120"/>
-      <c r="AD20" s="120"/>
-      <c r="AE20" s="120"/>
-      <c r="AF20" s="120"/>
-      <c r="AG20" s="120"/>
-      <c r="AH20" s="120"/>
-      <c r="AI20" s="120"/>
-      <c r="AJ20" s="120"/>
-      <c r="AK20" s="120"/>
-      <c r="AL20" s="121"/>
-      <c r="AM20" s="119"/>
-      <c r="AN20" s="120"/>
-      <c r="AO20" s="120"/>
-      <c r="AP20" s="120"/>
-      <c r="AQ20" s="120"/>
-      <c r="AR20" s="120"/>
-      <c r="AS20" s="120"/>
-      <c r="AT20" s="120"/>
-      <c r="AU20" s="120"/>
-      <c r="AV20" s="120"/>
-      <c r="AW20" s="120"/>
-      <c r="AX20" s="120"/>
-      <c r="AY20" s="120"/>
-      <c r="AZ20" s="121"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="145"/>
+      <c r="S20" s="145"/>
+      <c r="T20" s="145"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="145"/>
+      <c r="W20" s="145"/>
+      <c r="X20" s="145"/>
+      <c r="Y20" s="145"/>
+      <c r="Z20" s="145"/>
+      <c r="AA20" s="145"/>
+      <c r="AB20" s="145"/>
+      <c r="AC20" s="145"/>
+      <c r="AD20" s="145"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="145"/>
+      <c r="AH20" s="145"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="145"/>
+      <c r="AK20" s="145"/>
+      <c r="AL20" s="146"/>
+      <c r="AM20" s="144"/>
+      <c r="AN20" s="145"/>
+      <c r="AO20" s="145"/>
+      <c r="AP20" s="145"/>
+      <c r="AQ20" s="145"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="145"/>
+      <c r="AT20" s="145"/>
+      <c r="AU20" s="145"/>
+      <c r="AV20" s="145"/>
+      <c r="AW20" s="145"/>
+      <c r="AX20" s="145"/>
+      <c r="AY20" s="145"/>
+      <c r="AZ20" s="146"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="87" t="str">
@@ -3256,56 +3935,56 @@
         <v/>
       </c>
       <c r="B21" s="88"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="120"/>
-      <c r="AC21" s="120"/>
-      <c r="AD21" s="120"/>
-      <c r="AE21" s="120"/>
-      <c r="AF21" s="120"/>
-      <c r="AG21" s="120"/>
-      <c r="AH21" s="120"/>
-      <c r="AI21" s="120"/>
-      <c r="AJ21" s="120"/>
-      <c r="AK21" s="120"/>
-      <c r="AL21" s="121"/>
-      <c r="AM21" s="119"/>
-      <c r="AN21" s="120"/>
-      <c r="AO21" s="120"/>
-      <c r="AP21" s="120"/>
-      <c r="AQ21" s="120"/>
-      <c r="AR21" s="120"/>
-      <c r="AS21" s="120"/>
-      <c r="AT21" s="120"/>
-      <c r="AU21" s="120"/>
-      <c r="AV21" s="120"/>
-      <c r="AW21" s="120"/>
-      <c r="AX21" s="120"/>
-      <c r="AY21" s="120"/>
-      <c r="AZ21" s="121"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="145"/>
+      <c r="W21" s="145"/>
+      <c r="X21" s="145"/>
+      <c r="Y21" s="145"/>
+      <c r="Z21" s="145"/>
+      <c r="AA21" s="145"/>
+      <c r="AB21" s="145"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="145"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="145"/>
+      <c r="AH21" s="145"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="145"/>
+      <c r="AK21" s="145"/>
+      <c r="AL21" s="146"/>
+      <c r="AM21" s="144"/>
+      <c r="AN21" s="145"/>
+      <c r="AO21" s="145"/>
+      <c r="AP21" s="145"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="145"/>
+      <c r="AT21" s="145"/>
+      <c r="AU21" s="145"/>
+      <c r="AV21" s="145"/>
+      <c r="AW21" s="145"/>
+      <c r="AX21" s="145"/>
+      <c r="AY21" s="145"/>
+      <c r="AZ21" s="146"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="87" t="str">
@@ -3313,56 +3992,56 @@
         <v/>
       </c>
       <c r="B22" s="88"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="118"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="121"/>
-      <c r="Q22" s="119"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="120"/>
-      <c r="AC22" s="120"/>
-      <c r="AD22" s="120"/>
-      <c r="AE22" s="120"/>
-      <c r="AF22" s="120"/>
-      <c r="AG22" s="120"/>
-      <c r="AH22" s="120"/>
-      <c r="AI22" s="120"/>
-      <c r="AJ22" s="120"/>
-      <c r="AK22" s="120"/>
-      <c r="AL22" s="121"/>
-      <c r="AM22" s="119"/>
-      <c r="AN22" s="120"/>
-      <c r="AO22" s="120"/>
-      <c r="AP22" s="120"/>
-      <c r="AQ22" s="120"/>
-      <c r="AR22" s="120"/>
-      <c r="AS22" s="120"/>
-      <c r="AT22" s="120"/>
-      <c r="AU22" s="120"/>
-      <c r="AV22" s="120"/>
-      <c r="AW22" s="120"/>
-      <c r="AX22" s="120"/>
-      <c r="AY22" s="120"/>
-      <c r="AZ22" s="121"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="145"/>
+      <c r="T22" s="145"/>
+      <c r="U22" s="145"/>
+      <c r="V22" s="145"/>
+      <c r="W22" s="145"/>
+      <c r="X22" s="145"/>
+      <c r="Y22" s="145"/>
+      <c r="Z22" s="145"/>
+      <c r="AA22" s="145"/>
+      <c r="AB22" s="145"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="145"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="145"/>
+      <c r="AH22" s="145"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="145"/>
+      <c r="AK22" s="145"/>
+      <c r="AL22" s="146"/>
+      <c r="AM22" s="144"/>
+      <c r="AN22" s="145"/>
+      <c r="AO22" s="145"/>
+      <c r="AP22" s="145"/>
+      <c r="AQ22" s="145"/>
+      <c r="AR22" s="145"/>
+      <c r="AS22" s="145"/>
+      <c r="AT22" s="145"/>
+      <c r="AU22" s="145"/>
+      <c r="AV22" s="145"/>
+      <c r="AW22" s="145"/>
+      <c r="AX22" s="145"/>
+      <c r="AY22" s="145"/>
+      <c r="AZ22" s="146"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="87" t="str">
@@ -3370,56 +4049,56 @@
         <v/>
       </c>
       <c r="B23" s="88"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="119"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="120"/>
-      <c r="AC23" s="120"/>
-      <c r="AD23" s="120"/>
-      <c r="AE23" s="120"/>
-      <c r="AF23" s="120"/>
-      <c r="AG23" s="120"/>
-      <c r="AH23" s="120"/>
-      <c r="AI23" s="120"/>
-      <c r="AJ23" s="120"/>
-      <c r="AK23" s="120"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="119"/>
-      <c r="AN23" s="120"/>
-      <c r="AO23" s="120"/>
-      <c r="AP23" s="120"/>
-      <c r="AQ23" s="120"/>
-      <c r="AR23" s="120"/>
-      <c r="AS23" s="120"/>
-      <c r="AT23" s="120"/>
-      <c r="AU23" s="120"/>
-      <c r="AV23" s="120"/>
-      <c r="AW23" s="120"/>
-      <c r="AX23" s="120"/>
-      <c r="AY23" s="120"/>
-      <c r="AZ23" s="121"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="145"/>
+      <c r="T23" s="145"/>
+      <c r="U23" s="145"/>
+      <c r="V23" s="145"/>
+      <c r="W23" s="145"/>
+      <c r="X23" s="145"/>
+      <c r="Y23" s="145"/>
+      <c r="Z23" s="145"/>
+      <c r="AA23" s="145"/>
+      <c r="AB23" s="145"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="145"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="145"/>
+      <c r="AH23" s="145"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="145"/>
+      <c r="AK23" s="145"/>
+      <c r="AL23" s="146"/>
+      <c r="AM23" s="144"/>
+      <c r="AN23" s="145"/>
+      <c r="AO23" s="145"/>
+      <c r="AP23" s="145"/>
+      <c r="AQ23" s="145"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="145"/>
+      <c r="AT23" s="145"/>
+      <c r="AU23" s="145"/>
+      <c r="AV23" s="145"/>
+      <c r="AW23" s="145"/>
+      <c r="AX23" s="145"/>
+      <c r="AY23" s="145"/>
+      <c r="AZ23" s="146"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="87" t="str">
@@ -3427,56 +4106,56 @@
         <v/>
       </c>
       <c r="B24" s="88"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="119"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="120"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="119"/>
-      <c r="R24" s="120"/>
-      <c r="S24" s="120"/>
-      <c r="T24" s="120"/>
-      <c r="U24" s="120"/>
-      <c r="V24" s="120"/>
-      <c r="W24" s="120"/>
-      <c r="X24" s="120"/>
-      <c r="Y24" s="120"/>
-      <c r="Z24" s="120"/>
-      <c r="AA24" s="120"/>
-      <c r="AB24" s="120"/>
-      <c r="AC24" s="120"/>
-      <c r="AD24" s="120"/>
-      <c r="AE24" s="120"/>
-      <c r="AF24" s="120"/>
-      <c r="AG24" s="120"/>
-      <c r="AH24" s="120"/>
-      <c r="AI24" s="120"/>
-      <c r="AJ24" s="120"/>
-      <c r="AK24" s="120"/>
-      <c r="AL24" s="121"/>
-      <c r="AM24" s="119"/>
-      <c r="AN24" s="120"/>
-      <c r="AO24" s="120"/>
-      <c r="AP24" s="120"/>
-      <c r="AQ24" s="120"/>
-      <c r="AR24" s="120"/>
-      <c r="AS24" s="120"/>
-      <c r="AT24" s="120"/>
-      <c r="AU24" s="120"/>
-      <c r="AV24" s="120"/>
-      <c r="AW24" s="120"/>
-      <c r="AX24" s="120"/>
-      <c r="AY24" s="120"/>
-      <c r="AZ24" s="121"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="145"/>
+      <c r="T24" s="145"/>
+      <c r="U24" s="145"/>
+      <c r="V24" s="145"/>
+      <c r="W24" s="145"/>
+      <c r="X24" s="145"/>
+      <c r="Y24" s="145"/>
+      <c r="Z24" s="145"/>
+      <c r="AA24" s="145"/>
+      <c r="AB24" s="145"/>
+      <c r="AC24" s="145"/>
+      <c r="AD24" s="145"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="145"/>
+      <c r="AH24" s="145"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="145"/>
+      <c r="AK24" s="145"/>
+      <c r="AL24" s="146"/>
+      <c r="AM24" s="144"/>
+      <c r="AN24" s="145"/>
+      <c r="AO24" s="145"/>
+      <c r="AP24" s="145"/>
+      <c r="AQ24" s="145"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="145"/>
+      <c r="AT24" s="145"/>
+      <c r="AU24" s="145"/>
+      <c r="AV24" s="145"/>
+      <c r="AW24" s="145"/>
+      <c r="AX24" s="145"/>
+      <c r="AY24" s="145"/>
+      <c r="AZ24" s="146"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="87" t="str">
@@ -3484,56 +4163,56 @@
         <v/>
       </c>
       <c r="B25" s="88"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="119"/>
-      <c r="M25" s="120"/>
-      <c r="N25" s="120"/>
-      <c r="O25" s="120"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="120"/>
-      <c r="S25" s="120"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="120"/>
-      <c r="V25" s="120"/>
-      <c r="W25" s="120"/>
-      <c r="X25" s="120"/>
-      <c r="Y25" s="120"/>
-      <c r="Z25" s="120"/>
-      <c r="AA25" s="120"/>
-      <c r="AB25" s="120"/>
-      <c r="AC25" s="120"/>
-      <c r="AD25" s="120"/>
-      <c r="AE25" s="120"/>
-      <c r="AF25" s="120"/>
-      <c r="AG25" s="120"/>
-      <c r="AH25" s="120"/>
-      <c r="AI25" s="120"/>
-      <c r="AJ25" s="120"/>
-      <c r="AK25" s="120"/>
-      <c r="AL25" s="121"/>
-      <c r="AM25" s="119"/>
-      <c r="AN25" s="120"/>
-      <c r="AO25" s="120"/>
-      <c r="AP25" s="120"/>
-      <c r="AQ25" s="120"/>
-      <c r="AR25" s="120"/>
-      <c r="AS25" s="120"/>
-      <c r="AT25" s="120"/>
-      <c r="AU25" s="120"/>
-      <c r="AV25" s="120"/>
-      <c r="AW25" s="120"/>
-      <c r="AX25" s="120"/>
-      <c r="AY25" s="120"/>
-      <c r="AZ25" s="121"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="145"/>
+      <c r="T25" s="145"/>
+      <c r="U25" s="145"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="145"/>
+      <c r="Y25" s="145"/>
+      <c r="Z25" s="145"/>
+      <c r="AA25" s="145"/>
+      <c r="AB25" s="145"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="145"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="145"/>
+      <c r="AH25" s="145"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="145"/>
+      <c r="AK25" s="145"/>
+      <c r="AL25" s="146"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="145"/>
+      <c r="AO25" s="145"/>
+      <c r="AP25" s="145"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="145"/>
+      <c r="AT25" s="145"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="145"/>
+      <c r="AW25" s="145"/>
+      <c r="AX25" s="145"/>
+      <c r="AY25" s="145"/>
+      <c r="AZ25" s="146"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="87" t="str">
@@ -3541,56 +4220,56 @@
         <v/>
       </c>
       <c r="B26" s="88"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="121"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="120"/>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120"/>
-      <c r="U26" s="120"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="120"/>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="120"/>
-      <c r="AJ26" s="120"/>
-      <c r="AK26" s="120"/>
-      <c r="AL26" s="121"/>
-      <c r="AM26" s="119"/>
-      <c r="AN26" s="120"/>
-      <c r="AO26" s="120"/>
-      <c r="AP26" s="120"/>
-      <c r="AQ26" s="120"/>
-      <c r="AR26" s="120"/>
-      <c r="AS26" s="120"/>
-      <c r="AT26" s="120"/>
-      <c r="AU26" s="120"/>
-      <c r="AV26" s="120"/>
-      <c r="AW26" s="120"/>
-      <c r="AX26" s="120"/>
-      <c r="AY26" s="120"/>
-      <c r="AZ26" s="121"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="145"/>
+      <c r="T26" s="145"/>
+      <c r="U26" s="145"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="145"/>
+      <c r="AA26" s="145"/>
+      <c r="AB26" s="145"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="145"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="145"/>
+      <c r="AH26" s="145"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="145"/>
+      <c r="AK26" s="145"/>
+      <c r="AL26" s="146"/>
+      <c r="AM26" s="144"/>
+      <c r="AN26" s="145"/>
+      <c r="AO26" s="145"/>
+      <c r="AP26" s="145"/>
+      <c r="AQ26" s="145"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="145"/>
+      <c r="AT26" s="145"/>
+      <c r="AU26" s="145"/>
+      <c r="AV26" s="145"/>
+      <c r="AW26" s="145"/>
+      <c r="AX26" s="145"/>
+      <c r="AY26" s="145"/>
+      <c r="AZ26" s="146"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="87" t="str">
@@ -3598,56 +4277,56 @@
         <v/>
       </c>
       <c r="B27" s="88"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="119"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
-      <c r="O27" s="120"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="120"/>
-      <c r="AJ27" s="120"/>
-      <c r="AK27" s="120"/>
-      <c r="AL27" s="121"/>
-      <c r="AM27" s="119"/>
-      <c r="AN27" s="120"/>
-      <c r="AO27" s="120"/>
-      <c r="AP27" s="120"/>
-      <c r="AQ27" s="120"/>
-      <c r="AR27" s="120"/>
-      <c r="AS27" s="120"/>
-      <c r="AT27" s="120"/>
-      <c r="AU27" s="120"/>
-      <c r="AV27" s="120"/>
-      <c r="AW27" s="120"/>
-      <c r="AX27" s="120"/>
-      <c r="AY27" s="120"/>
-      <c r="AZ27" s="121"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="145"/>
+      <c r="T27" s="145"/>
+      <c r="U27" s="145"/>
+      <c r="V27" s="145"/>
+      <c r="W27" s="145"/>
+      <c r="X27" s="145"/>
+      <c r="Y27" s="145"/>
+      <c r="Z27" s="145"/>
+      <c r="AA27" s="145"/>
+      <c r="AB27" s="145"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="145"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="145"/>
+      <c r="AH27" s="145"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="145"/>
+      <c r="AK27" s="145"/>
+      <c r="AL27" s="146"/>
+      <c r="AM27" s="144"/>
+      <c r="AN27" s="145"/>
+      <c r="AO27" s="145"/>
+      <c r="AP27" s="145"/>
+      <c r="AQ27" s="145"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="145"/>
+      <c r="AT27" s="145"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="145"/>
+      <c r="AW27" s="145"/>
+      <c r="AX27" s="145"/>
+      <c r="AY27" s="145"/>
+      <c r="AZ27" s="146"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="87" t="str">
@@ -3655,56 +4334,56 @@
         <v/>
       </c>
       <c r="B28" s="88"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="118"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="119"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="120"/>
-      <c r="AJ28" s="120"/>
-      <c r="AK28" s="120"/>
-      <c r="AL28" s="121"/>
-      <c r="AM28" s="119"/>
-      <c r="AN28" s="120"/>
-      <c r="AO28" s="120"/>
-      <c r="AP28" s="120"/>
-      <c r="AQ28" s="120"/>
-      <c r="AR28" s="120"/>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="120"/>
-      <c r="AY28" s="120"/>
-      <c r="AZ28" s="121"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="145"/>
+      <c r="T28" s="145"/>
+      <c r="U28" s="145"/>
+      <c r="V28" s="145"/>
+      <c r="W28" s="145"/>
+      <c r="X28" s="145"/>
+      <c r="Y28" s="145"/>
+      <c r="Z28" s="145"/>
+      <c r="AA28" s="145"/>
+      <c r="AB28" s="145"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="145"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="145"/>
+      <c r="AH28" s="145"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="145"/>
+      <c r="AK28" s="145"/>
+      <c r="AL28" s="146"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="145"/>
+      <c r="AO28" s="145"/>
+      <c r="AP28" s="145"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="145"/>
+      <c r="AT28" s="145"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="145"/>
+      <c r="AW28" s="145"/>
+      <c r="AX28" s="145"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="146"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="87" t="str">
@@ -3712,56 +4391,56 @@
         <v/>
       </c>
       <c r="B29" s="88"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="118"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="120"/>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="119"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="120"/>
-      <c r="AJ29" s="120"/>
-      <c r="AK29" s="120"/>
-      <c r="AL29" s="121"/>
-      <c r="AM29" s="119"/>
-      <c r="AN29" s="120"/>
-      <c r="AO29" s="120"/>
-      <c r="AP29" s="120"/>
-      <c r="AQ29" s="120"/>
-      <c r="AR29" s="120"/>
-      <c r="AS29" s="120"/>
-      <c r="AT29" s="120"/>
-      <c r="AU29" s="120"/>
-      <c r="AV29" s="120"/>
-      <c r="AW29" s="120"/>
-      <c r="AX29" s="120"/>
-      <c r="AY29" s="120"/>
-      <c r="AZ29" s="121"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="145"/>
+      <c r="T29" s="145"/>
+      <c r="U29" s="145"/>
+      <c r="V29" s="145"/>
+      <c r="W29" s="145"/>
+      <c r="X29" s="145"/>
+      <c r="Y29" s="145"/>
+      <c r="Z29" s="145"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
+      <c r="AC29" s="145"/>
+      <c r="AD29" s="145"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="145"/>
+      <c r="AH29" s="145"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="145"/>
+      <c r="AK29" s="145"/>
+      <c r="AL29" s="146"/>
+      <c r="AM29" s="144"/>
+      <c r="AN29" s="145"/>
+      <c r="AO29" s="145"/>
+      <c r="AP29" s="145"/>
+      <c r="AQ29" s="145"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="145"/>
+      <c r="AT29" s="145"/>
+      <c r="AU29" s="145"/>
+      <c r="AV29" s="145"/>
+      <c r="AW29" s="145"/>
+      <c r="AX29" s="145"/>
+      <c r="AY29" s="145"/>
+      <c r="AZ29" s="146"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="87" t="str">
@@ -3769,56 +4448,56 @@
         <v/>
       </c>
       <c r="B30" s="88"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="118"/>
-      <c r="L30" s="119"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="119"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-      <c r="AJ30" s="120"/>
-      <c r="AK30" s="120"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="119"/>
-      <c r="AN30" s="120"/>
-      <c r="AO30" s="120"/>
-      <c r="AP30" s="120"/>
-      <c r="AQ30" s="120"/>
-      <c r="AR30" s="120"/>
-      <c r="AS30" s="120"/>
-      <c r="AT30" s="120"/>
-      <c r="AU30" s="120"/>
-      <c r="AV30" s="120"/>
-      <c r="AW30" s="120"/>
-      <c r="AX30" s="120"/>
-      <c r="AY30" s="120"/>
-      <c r="AZ30" s="121"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="145"/>
+      <c r="U30" s="145"/>
+      <c r="V30" s="145"/>
+      <c r="W30" s="145"/>
+      <c r="X30" s="145"/>
+      <c r="Y30" s="145"/>
+      <c r="Z30" s="145"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
+      <c r="AC30" s="145"/>
+      <c r="AD30" s="145"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="145"/>
+      <c r="AH30" s="145"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="145"/>
+      <c r="AL30" s="146"/>
+      <c r="AM30" s="144"/>
+      <c r="AN30" s="145"/>
+      <c r="AO30" s="145"/>
+      <c r="AP30" s="145"/>
+      <c r="AQ30" s="145"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="145"/>
+      <c r="AT30" s="145"/>
+      <c r="AU30" s="145"/>
+      <c r="AV30" s="145"/>
+      <c r="AW30" s="145"/>
+      <c r="AX30" s="145"/>
+      <c r="AY30" s="145"/>
+      <c r="AZ30" s="146"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="87" t="str">
@@ -3826,56 +4505,56 @@
         <v/>
       </c>
       <c r="B31" s="88"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="119"/>
-      <c r="M31" s="120"/>
-      <c r="N31" s="120"/>
-      <c r="O31" s="120"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="119"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="120"/>
-      <c r="AJ31" s="120"/>
-      <c r="AK31" s="120"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="119"/>
-      <c r="AN31" s="120"/>
-      <c r="AO31" s="120"/>
-      <c r="AP31" s="120"/>
-      <c r="AQ31" s="120"/>
-      <c r="AR31" s="120"/>
-      <c r="AS31" s="120"/>
-      <c r="AT31" s="120"/>
-      <c r="AU31" s="120"/>
-      <c r="AV31" s="120"/>
-      <c r="AW31" s="120"/>
-      <c r="AX31" s="120"/>
-      <c r="AY31" s="120"/>
-      <c r="AZ31" s="121"/>
+      <c r="C31" s="138"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="144"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="145"/>
+      <c r="T31" s="145"/>
+      <c r="U31" s="145"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="145"/>
+      <c r="Y31" s="145"/>
+      <c r="Z31" s="145"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
+      <c r="AC31" s="145"/>
+      <c r="AD31" s="145"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="145"/>
+      <c r="AH31" s="145"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="145"/>
+      <c r="AK31" s="145"/>
+      <c r="AL31" s="146"/>
+      <c r="AM31" s="144"/>
+      <c r="AN31" s="145"/>
+      <c r="AO31" s="145"/>
+      <c r="AP31" s="145"/>
+      <c r="AQ31" s="145"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="145"/>
+      <c r="AT31" s="145"/>
+      <c r="AU31" s="145"/>
+      <c r="AV31" s="145"/>
+      <c r="AW31" s="145"/>
+      <c r="AX31" s="145"/>
+      <c r="AY31" s="145"/>
+      <c r="AZ31" s="146"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="87" t="str">
@@ -3883,56 +4562,56 @@
         <v/>
       </c>
       <c r="B32" s="88"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="120"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="119"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="120"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="119"/>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="120"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
-      <c r="AR32" s="120"/>
-      <c r="AS32" s="120"/>
-      <c r="AT32" s="120"/>
-      <c r="AU32" s="120"/>
-      <c r="AV32" s="120"/>
-      <c r="AW32" s="120"/>
-      <c r="AX32" s="120"/>
-      <c r="AY32" s="120"/>
-      <c r="AZ32" s="121"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="145"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="145"/>
+      <c r="T32" s="145"/>
+      <c r="U32" s="145"/>
+      <c r="V32" s="145"/>
+      <c r="W32" s="145"/>
+      <c r="X32" s="145"/>
+      <c r="Y32" s="145"/>
+      <c r="Z32" s="145"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
+      <c r="AC32" s="145"/>
+      <c r="AD32" s="145"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="145"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="145"/>
+      <c r="AK32" s="145"/>
+      <c r="AL32" s="146"/>
+      <c r="AM32" s="144"/>
+      <c r="AN32" s="145"/>
+      <c r="AO32" s="145"/>
+      <c r="AP32" s="145"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="145"/>
+      <c r="AT32" s="145"/>
+      <c r="AU32" s="145"/>
+      <c r="AV32" s="145"/>
+      <c r="AW32" s="145"/>
+      <c r="AX32" s="145"/>
+      <c r="AY32" s="145"/>
+      <c r="AZ32" s="146"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="87" t="str">
@@ -3940,56 +4619,56 @@
         <v/>
       </c>
       <c r="B33" s="88"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
-      <c r="O33" s="120"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
-      <c r="AI33" s="120"/>
-      <c r="AJ33" s="120"/>
-      <c r="AK33" s="120"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="120"/>
-      <c r="AO33" s="120"/>
-      <c r="AP33" s="120"/>
-      <c r="AQ33" s="120"/>
-      <c r="AR33" s="120"/>
-      <c r="AS33" s="120"/>
-      <c r="AT33" s="120"/>
-      <c r="AU33" s="120"/>
-      <c r="AV33" s="120"/>
-      <c r="AW33" s="120"/>
-      <c r="AX33" s="120"/>
-      <c r="AY33" s="120"/>
-      <c r="AZ33" s="121"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="145"/>
+      <c r="O33" s="145"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="145"/>
+      <c r="T33" s="145"/>
+      <c r="U33" s="145"/>
+      <c r="V33" s="145"/>
+      <c r="W33" s="145"/>
+      <c r="X33" s="145"/>
+      <c r="Y33" s="145"/>
+      <c r="Z33" s="145"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
+      <c r="AC33" s="145"/>
+      <c r="AD33" s="145"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="145"/>
+      <c r="AH33" s="145"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="145"/>
+      <c r="AK33" s="145"/>
+      <c r="AL33" s="146"/>
+      <c r="AM33" s="144"/>
+      <c r="AN33" s="145"/>
+      <c r="AO33" s="145"/>
+      <c r="AP33" s="145"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="145"/>
+      <c r="AT33" s="145"/>
+      <c r="AU33" s="145"/>
+      <c r="AV33" s="145"/>
+      <c r="AW33" s="145"/>
+      <c r="AX33" s="145"/>
+      <c r="AY33" s="145"/>
+      <c r="AZ33" s="146"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="87" t="str">
@@ -3997,56 +4676,56 @@
         <v/>
       </c>
       <c r="B34" s="88"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="119"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="120"/>
-      <c r="AJ34" s="120"/>
-      <c r="AK34" s="120"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="119"/>
-      <c r="AN34" s="120"/>
-      <c r="AO34" s="120"/>
-      <c r="AP34" s="120"/>
-      <c r="AQ34" s="120"/>
-      <c r="AR34" s="120"/>
-      <c r="AS34" s="120"/>
-      <c r="AT34" s="120"/>
-      <c r="AU34" s="120"/>
-      <c r="AV34" s="120"/>
-      <c r="AW34" s="120"/>
-      <c r="AX34" s="120"/>
-      <c r="AY34" s="120"/>
-      <c r="AZ34" s="121"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="145"/>
+      <c r="N34" s="145"/>
+      <c r="O34" s="145"/>
+      <c r="P34" s="146"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="145"/>
+      <c r="T34" s="145"/>
+      <c r="U34" s="145"/>
+      <c r="V34" s="145"/>
+      <c r="W34" s="145"/>
+      <c r="X34" s="145"/>
+      <c r="Y34" s="145"/>
+      <c r="Z34" s="145"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
+      <c r="AC34" s="145"/>
+      <c r="AD34" s="145"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="145"/>
+      <c r="AG34" s="145"/>
+      <c r="AH34" s="145"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="145"/>
+      <c r="AK34" s="145"/>
+      <c r="AL34" s="146"/>
+      <c r="AM34" s="144"/>
+      <c r="AN34" s="145"/>
+      <c r="AO34" s="145"/>
+      <c r="AP34" s="145"/>
+      <c r="AQ34" s="145"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="145"/>
+      <c r="AT34" s="145"/>
+      <c r="AU34" s="145"/>
+      <c r="AV34" s="145"/>
+      <c r="AW34" s="145"/>
+      <c r="AX34" s="145"/>
+      <c r="AY34" s="145"/>
+      <c r="AZ34" s="146"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="87" t="str">
@@ -4054,59 +4733,189 @@
         <v/>
       </c>
       <c r="B35" s="88"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="114"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="119"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
-      <c r="AD35" s="120"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
-      <c r="AG35" s="120"/>
-      <c r="AH35" s="120"/>
-      <c r="AI35" s="120"/>
-      <c r="AJ35" s="120"/>
-      <c r="AK35" s="120"/>
-      <c r="AL35" s="121"/>
-      <c r="AM35" s="119"/>
-      <c r="AN35" s="120"/>
-      <c r="AO35" s="120"/>
-      <c r="AP35" s="120"/>
-      <c r="AQ35" s="120"/>
-      <c r="AR35" s="120"/>
-      <c r="AS35" s="120"/>
-      <c r="AT35" s="120"/>
-      <c r="AU35" s="120"/>
-      <c r="AV35" s="120"/>
-      <c r="AW35" s="120"/>
-      <c r="AX35" s="120"/>
-      <c r="AY35" s="120"/>
-      <c r="AZ35" s="121"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="145"/>
+      <c r="N35" s="145"/>
+      <c r="O35" s="145"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="145"/>
+      <c r="T35" s="145"/>
+      <c r="U35" s="145"/>
+      <c r="V35" s="145"/>
+      <c r="W35" s="145"/>
+      <c r="X35" s="145"/>
+      <c r="Y35" s="145"/>
+      <c r="Z35" s="145"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
+      <c r="AC35" s="145"/>
+      <c r="AD35" s="145"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="145"/>
+      <c r="AG35" s="145"/>
+      <c r="AH35" s="145"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="145"/>
+      <c r="AK35" s="145"/>
+      <c r="AL35" s="146"/>
+      <c r="AM35" s="144"/>
+      <c r="AN35" s="145"/>
+      <c r="AO35" s="145"/>
+      <c r="AP35" s="145"/>
+      <c r="AQ35" s="145"/>
+      <c r="AR35" s="145"/>
+      <c r="AS35" s="145"/>
+      <c r="AT35" s="145"/>
+      <c r="AU35" s="145"/>
+      <c r="AV35" s="145"/>
+      <c r="AW35" s="145"/>
+      <c r="AX35" s="145"/>
+      <c r="AY35" s="145"/>
+      <c r="AZ35" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:AL34"/>
+    <mergeCell ref="AM34:AZ34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:AL35"/>
+    <mergeCell ref="AM35:AZ35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="L8:P8"/>
@@ -4117,136 +4926,6 @@
     <mergeCell ref="L9:P9"/>
     <mergeCell ref="Q9:AL9"/>
     <mergeCell ref="AM9:AZ9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:AL34"/>
-    <mergeCell ref="AM34:AZ34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:AL35"/>
-    <mergeCell ref="AM35:AZ35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4257,11 +4936,1680 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE0E06-EF5E-5144-93F0-B9E778FBAAB9}">
+  <dimension ref="A1:AN39"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="124" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="B6" sqref="B6:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="16" width="5" customWidth="1"/>
+    <col min="17" max="20" width="5.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" customWidth="1"/>
+    <col min="22" max="23" width="5.140625" customWidth="1"/>
+    <col min="24" max="40" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="21" thickBot="1">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="16" customHeight="1" thickBot="1">
+      <c r="B2" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:40" ht="11" customHeight="1" thickBot="1">
+      <c r="B3" s="33"/>
+    </row>
+    <row r="4" spans="1:40" ht="21" thickTop="1">
+      <c r="B4" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="147">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="147">
+        <v>2023</v>
+      </c>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="147">
+        <v>2024</v>
+      </c>
+      <c r="AD4" s="148"/>
+      <c r="AE4" s="148"/>
+      <c r="AF4" s="148"/>
+      <c r="AG4" s="148"/>
+      <c r="AH4" s="148"/>
+      <c r="AI4" s="148"/>
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="148"/>
+      <c r="AL4" s="148"/>
+      <c r="AM4" s="148"/>
+      <c r="AN4" s="149"/>
+    </row>
+    <row r="5" spans="1:40" ht="21" thickBot="1">
+      <c r="B5" s="163"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2</v>
+      </c>
+      <c r="G5" s="35">
+        <v>3</v>
+      </c>
+      <c r="H5" s="35">
+        <v>4</v>
+      </c>
+      <c r="I5" s="35">
+        <v>5</v>
+      </c>
+      <c r="J5" s="35">
+        <v>6</v>
+      </c>
+      <c r="K5" s="35">
+        <v>7</v>
+      </c>
+      <c r="L5" s="35">
+        <v>8</v>
+      </c>
+      <c r="M5" s="35">
+        <v>9</v>
+      </c>
+      <c r="N5" s="35">
+        <v>10</v>
+      </c>
+      <c r="O5" s="35">
+        <v>11</v>
+      </c>
+      <c r="P5" s="49">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="34">
+        <v>1</v>
+      </c>
+      <c r="R5" s="35">
+        <v>2</v>
+      </c>
+      <c r="S5" s="35">
+        <v>3</v>
+      </c>
+      <c r="T5" s="35">
+        <v>4</v>
+      </c>
+      <c r="U5" s="35">
+        <v>5</v>
+      </c>
+      <c r="V5" s="35">
+        <v>6</v>
+      </c>
+      <c r="W5" s="35">
+        <v>7</v>
+      </c>
+      <c r="X5" s="35">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AA5" s="35">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="36">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="34">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="35">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="35">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="35">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="35">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="35">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="35">
+        <v>10</v>
+      </c>
+      <c r="AM5" s="35">
+        <v>11</v>
+      </c>
+      <c r="AN5" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="188"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="17"/>
+    </row>
+    <row r="7" spans="1:40" ht="18" customHeight="1">
+      <c r="B7" s="153"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="46"/>
+      <c r="AJ7" s="19"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="20"/>
+    </row>
+    <row r="8" spans="1:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B8" s="153"/>
+      <c r="C8" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" ht="18" customHeight="1">
+      <c r="B9" s="153"/>
+      <c r="C9" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="189"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="20"/>
+    </row>
+    <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B10" s="153"/>
+      <c r="C10" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" ht="18" customHeight="1">
+      <c r="B11" s="153"/>
+      <c r="C11" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="189"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="167"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="46"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="20"/>
+    </row>
+    <row r="12" spans="1:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" ht="18" customHeight="1">
+      <c r="B13" s="155"/>
+      <c r="C13" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="172"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="189"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="167"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="46"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="20"/>
+    </row>
+    <row r="14" spans="1:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B14" s="155"/>
+      <c r="C14" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="47"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="12"/>
+    </row>
+    <row r="15" spans="1:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B15" s="152"/>
+      <c r="C15" s="157"/>
+      <c r="D15" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="51"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
+    </row>
+    <row r="16" spans="1:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="89"/>
+      <c r="C16" s="199" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="201"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="202"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="72"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="170"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="29"/>
+    </row>
+    <row r="17" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="89"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="22"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="23"/>
+    </row>
+    <row r="18" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="89"/>
+      <c r="C18" s="199" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="170"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="29"/>
+    </row>
+    <row r="19" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="89"/>
+      <c r="C19" s="199"/>
+      <c r="D19" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="104"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="22"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="23"/>
+    </row>
+    <row r="20" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="89"/>
+      <c r="C20" s="199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="200" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="170"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="206"/>
+      <c r="X20" s="207"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="208"/>
+      <c r="AC20" s="209"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="29"/>
+    </row>
+    <row r="21" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="89"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="104"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="48"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="23"/>
+    </row>
+    <row r="22" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="190"/>
+      <c r="Y22" s="97"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="178"/>
+      <c r="AC22" s="170"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28"/>
+      <c r="AM22" s="28"/>
+      <c r="AN22" s="29"/>
+    </row>
+    <row r="23" spans="2:40" ht="18" customHeight="1">
+      <c r="B23" s="157"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="179"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="191"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="61"/>
+      <c r="AB23" s="180"/>
+      <c r="AC23" s="167"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="46"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="20"/>
+    </row>
+    <row r="24" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B24" s="157"/>
+      <c r="C24" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="99"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="182"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="4"/>
+    </row>
+    <row r="25" spans="2:40" ht="18" customHeight="1">
+      <c r="B25" s="157"/>
+      <c r="C25" s="155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="179"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="191"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="61"/>
+      <c r="AA25" s="61"/>
+      <c r="AB25" s="180"/>
+      <c r="AC25" s="167"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="20"/>
+    </row>
+    <row r="26" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B26" s="157"/>
+      <c r="C26" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="57"/>
+      <c r="X26" s="193"/>
+      <c r="Y26" s="99"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="182"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="4"/>
+    </row>
+    <row r="27" spans="2:40" ht="18" customHeight="1">
+      <c r="B27" s="157"/>
+      <c r="C27" s="155" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="61"/>
+      <c r="AA27" s="61"/>
+      <c r="AB27" s="180"/>
+      <c r="AC27" s="167"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="46"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="20"/>
+    </row>
+    <row r="28" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B28" s="157"/>
+      <c r="C28" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="194"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="182"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="4"/>
+    </row>
+    <row r="29" spans="2:40" ht="18" customHeight="1">
+      <c r="B29" s="157"/>
+      <c r="C29" s="155" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="179"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="61"/>
+      <c r="AA29" s="61"/>
+      <c r="AB29" s="180"/>
+      <c r="AC29" s="167"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="46"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="20"/>
+    </row>
+    <row r="30" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B30" s="157"/>
+      <c r="C30" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="195"/>
+      <c r="Y30" s="101"/>
+      <c r="Z30" s="43"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="184"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="12"/>
+    </row>
+    <row r="31" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B31" s="157"/>
+      <c r="C31" s="152" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="196"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="186"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="23"/>
+    </row>
+    <row r="32" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B32" s="157"/>
+      <c r="C32" s="150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="165"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="69"/>
+      <c r="X32" s="197"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="176"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="165"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="32"/>
+    </row>
+    <row r="33" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B33" s="157"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="196"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="186"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="22"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="23"/>
+    </row>
+    <row r="34" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="157"/>
+      <c r="C34" s="150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="165"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="69"/>
+      <c r="X34" s="197"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="187"/>
+      <c r="AC34" s="169"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="165"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="32"/>
+    </row>
+    <row r="35" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B35" s="157"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="196"/>
+      <c r="Y35" s="102"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="23"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="23"/>
+    </row>
+    <row r="36" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B36" s="157"/>
+      <c r="C36" s="150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="165"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="197"/>
+      <c r="Y36" s="103"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="68"/>
+      <c r="AB36" s="187"/>
+      <c r="AC36" s="169"/>
+      <c r="AD36" s="53"/>
+      <c r="AE36" s="31"/>
+      <c r="AF36" s="31"/>
+      <c r="AG36" s="31"/>
+      <c r="AH36" s="31"/>
+      <c r="AI36" s="165"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="31"/>
+      <c r="AL36" s="31"/>
+      <c r="AM36" s="31"/>
+      <c r="AN36" s="32"/>
+    </row>
+    <row r="37" spans="2:40" ht="18" customHeight="1" thickBot="1">
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="198"/>
+      <c r="Y37" s="104"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="104"/>
+      <c r="AD37" s="22"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="22"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="23"/>
+    </row>
+    <row r="38" spans="2:40" ht="21" thickTop="1"/>
+    <row r="39" spans="2:40" ht="15" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="AC4:AN4"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:P4"/>
+    <mergeCell ref="Q4:AB4"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608A8D9D-F555-BC4F-B5BE-643F4A4F0BAC}">
   <dimension ref="B2:AB39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="124" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="124" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4287,46 +6635,46 @@
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="2:28" ht="21" thickTop="1">
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="130">
+      <c r="D4" s="159"/>
+      <c r="E4" s="147">
         <v>2022</v>
       </c>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="130">
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="147">
         <v>2023</v>
       </c>
-      <c r="R4" s="131"/>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="131"/>
-      <c r="W4" s="131"/>
-      <c r="X4" s="131"/>
-      <c r="Y4" s="131"/>
-      <c r="Z4" s="131"/>
-      <c r="AA4" s="131"/>
-      <c r="AB4" s="132"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="148"/>
+      <c r="X4" s="148"/>
+      <c r="Y4" s="148"/>
+      <c r="Z4" s="148"/>
+      <c r="AA4" s="148"/>
+      <c r="AB4" s="149"/>
     </row>
     <row r="5" spans="2:28" ht="21" thickBot="1">
-      <c r="B5" s="138"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="B5" s="163"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="34">
         <v>1</v>
       </c>
@@ -4401,10 +6749,10 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="C6" s="156" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -4436,8 +6784,8 @@
       <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="18" customHeight="1">
-      <c r="B7" s="136"/>
-      <c r="C7" s="133"/>
+      <c r="B7" s="153"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
@@ -4467,8 +6815,8 @@
       <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="136"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="155" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4500,8 +6848,8 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1">
-      <c r="B9" s="136"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="155" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -4533,8 +6881,8 @@
       <c r="AB9" s="20"/>
     </row>
     <row r="10" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="136"/>
-      <c r="C10" s="133" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -4566,8 +6914,8 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1">
-      <c r="B11" s="136"/>
-      <c r="C11" s="133" t="s">
+      <c r="B11" s="153"/>
+      <c r="C11" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -4599,8 +6947,8 @@
       <c r="AB11" s="20"/>
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="133"/>
-      <c r="C12" s="133" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="155" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -4632,8 +6980,8 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="2:28" ht="18" customHeight="1">
-      <c r="B13" s="133"/>
-      <c r="C13" s="133" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="155" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -4665,8 +7013,8 @@
       <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="133"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="155"/>
+      <c r="C14" s="152" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -4698,8 +7046,8 @@
       <c r="AB14" s="12"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="153"/>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
@@ -4730,7 +7078,7 @@
     </row>
     <row r="16" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="58"/>
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="152" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -4763,7 +7111,7 @@
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B17" s="58"/>
-      <c r="C17" s="136"/>
+      <c r="C17" s="153"/>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
@@ -4794,7 +7142,7 @@
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="58"/>
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="152" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -4827,7 +7175,7 @@
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B19" s="58"/>
-      <c r="C19" s="136"/>
+      <c r="C19" s="153"/>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
@@ -4858,7 +7206,7 @@
     </row>
     <row r="20" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B20" s="58"/>
-      <c r="C20" s="125" t="s">
+      <c r="C20" s="152" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -4875,8 +7223,8 @@
       <c r="M20" s="53"/>
       <c r="N20" s="53"/>
       <c r="O20" s="53"/>
-      <c r="P20" s="139"/>
-      <c r="Q20" s="140"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
       <c r="R20" s="53"/>
       <c r="S20" s="53"/>
       <c r="T20" s="53"/>
@@ -4891,7 +7239,7 @@
     </row>
     <row r="21" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B21" s="58"/>
-      <c r="C21" s="123"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
@@ -4921,10 +7269,10 @@
       <c r="AB21" s="23"/>
     </row>
     <row r="22" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="154" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -4942,8 +7290,8 @@
       <c r="N22" s="44"/>
       <c r="O22" s="72"/>
       <c r="P22" s="60"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="141"/>
+      <c r="Q22" s="105"/>
+      <c r="R22" s="97"/>
       <c r="S22" s="59"/>
       <c r="T22" s="59"/>
       <c r="U22" s="59"/>
@@ -4956,8 +7304,8 @@
       <c r="AB22" s="29"/>
     </row>
     <row r="23" spans="2:28" ht="18" customHeight="1">
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="8" t="s">
         <v>13</v>
       </c>
@@ -4973,8 +7321,8 @@
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
       <c r="P23" s="62"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="142"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="98"/>
       <c r="S23" s="61"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
@@ -4987,8 +7335,8 @@
       <c r="AB23" s="20"/>
     </row>
     <row r="24" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="133"/>
-      <c r="C24" s="133" t="s">
+      <c r="B24" s="155"/>
+      <c r="C24" s="155" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -5006,8 +7354,8 @@
       <c r="N24" s="42"/>
       <c r="O24" s="42"/>
       <c r="P24" s="76"/>
-      <c r="Q24" s="151"/>
-      <c r="R24" s="143"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="99"/>
       <c r="S24" s="63"/>
       <c r="T24" s="63"/>
       <c r="U24" s="63"/>
@@ -5020,8 +7368,8 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="2:28" ht="18" customHeight="1">
-      <c r="B25" s="133"/>
-      <c r="C25" s="133" t="s">
+      <c r="B25" s="155"/>
+      <c r="C25" s="155" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -5039,8 +7387,8 @@
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="62"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="142"/>
+      <c r="Q25" s="106"/>
+      <c r="R25" s="98"/>
       <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
@@ -5053,8 +7401,8 @@
       <c r="AB25" s="20"/>
     </row>
     <row r="26" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="133"/>
-      <c r="C26" s="133" t="s">
+      <c r="B26" s="155"/>
+      <c r="C26" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -5072,8 +7420,8 @@
       <c r="N26" s="63"/>
       <c r="O26" s="42"/>
       <c r="P26" s="57"/>
-      <c r="Q26" s="152"/>
-      <c r="R26" s="143"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="99"/>
       <c r="S26" s="63"/>
       <c r="T26" s="63"/>
       <c r="U26" s="63"/>
@@ -5086,8 +7434,8 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="2:28" ht="18" customHeight="1">
-      <c r="B27" s="133"/>
-      <c r="C27" s="133" t="s">
+      <c r="B27" s="155"/>
+      <c r="C27" s="155" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -5105,8 +7453,8 @@
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="62"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="142"/>
+      <c r="Q27" s="106"/>
+      <c r="R27" s="98"/>
       <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
@@ -5119,8 +7467,8 @@
       <c r="AB27" s="20"/>
     </row>
     <row r="28" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="133"/>
-      <c r="C28" s="133" t="s">
+      <c r="B28" s="155"/>
+      <c r="C28" s="155" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -5138,8 +7486,8 @@
       <c r="N28" s="63"/>
       <c r="O28" s="63"/>
       <c r="P28" s="57"/>
-      <c r="Q28" s="153"/>
-      <c r="R28" s="144"/>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="100"/>
       <c r="S28" s="63"/>
       <c r="T28" s="63"/>
       <c r="U28" s="63"/>
@@ -5152,8 +7500,8 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="2:28" ht="18" customHeight="1">
-      <c r="B29" s="133"/>
-      <c r="C29" s="133" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="155" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -5171,8 +7519,8 @@
       <c r="N29" s="61"/>
       <c r="O29" s="61"/>
       <c r="P29" s="62"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="142"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="98"/>
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
@@ -5185,8 +7533,8 @@
       <c r="AB29" s="20"/>
     </row>
     <row r="30" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="133"/>
-      <c r="C30" s="133" t="s">
+      <c r="B30" s="155"/>
+      <c r="C30" s="155" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -5204,8 +7552,8 @@
       <c r="N30" s="64"/>
       <c r="O30" s="64"/>
       <c r="P30" s="65"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="145"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="101"/>
       <c r="S30" s="43"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
@@ -5218,8 +7566,8 @@
       <c r="AB30" s="12"/>
     </row>
     <row r="31" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="125" t="s">
+      <c r="B31" s="152"/>
+      <c r="C31" s="152" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -5237,8 +7585,8 @@
       <c r="N31" s="66"/>
       <c r="O31" s="66"/>
       <c r="P31" s="67"/>
-      <c r="Q31" s="155"/>
-      <c r="R31" s="146"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="102"/>
       <c r="S31" s="66"/>
       <c r="T31" s="66"/>
       <c r="U31" s="66"/>
@@ -5251,10 +7599,10 @@
       <c r="AB31" s="23"/>
     </row>
     <row r="32" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="122" t="s">
+      <c r="C32" s="150" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -5272,8 +7620,8 @@
       <c r="N32" s="68"/>
       <c r="O32" s="68"/>
       <c r="P32" s="69"/>
-      <c r="Q32" s="156"/>
-      <c r="R32" s="147"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="103"/>
       <c r="S32" s="53"/>
       <c r="T32" s="53"/>
       <c r="U32" s="53"/>
@@ -5286,8 +7634,8 @@
       <c r="AB32" s="32"/>
     </row>
     <row r="33" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="124"/>
-      <c r="C33" s="123"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="151"/>
       <c r="D33" s="6" t="s">
         <v>13</v>
       </c>
@@ -5303,8 +7651,8 @@
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="67"/>
-      <c r="Q33" s="155"/>
-      <c r="R33" s="146"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="102"/>
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="U33" s="66"/>
@@ -5317,8 +7665,8 @@
       <c r="AB33" s="23"/>
     </row>
     <row r="34" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="124"/>
-      <c r="C34" s="122" t="s">
+      <c r="B34" s="157"/>
+      <c r="C34" s="150" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -5336,8 +7684,8 @@
       <c r="N34" s="68"/>
       <c r="O34" s="68"/>
       <c r="P34" s="69"/>
-      <c r="Q34" s="156"/>
-      <c r="R34" s="147"/>
+      <c r="Q34" s="112"/>
+      <c r="R34" s="103"/>
       <c r="S34" s="68"/>
       <c r="T34" s="68"/>
       <c r="U34" s="54"/>
@@ -5350,8 +7698,8 @@
       <c r="AB34" s="32"/>
     </row>
     <row r="35" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="124"/>
-      <c r="C35" s="123"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="151"/>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
@@ -5367,8 +7715,8 @@
       <c r="N35" s="66"/>
       <c r="O35" s="66"/>
       <c r="P35" s="67"/>
-      <c r="Q35" s="155"/>
-      <c r="R35" s="146"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="102"/>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
       <c r="U35" s="22"/>
@@ -5381,8 +7729,8 @@
       <c r="AB35" s="23"/>
     </row>
     <row r="36" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B36" s="124"/>
-      <c r="C36" s="122" t="s">
+      <c r="B36" s="157"/>
+      <c r="C36" s="150" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -5400,8 +7748,8 @@
       <c r="N36" s="68"/>
       <c r="O36" s="68"/>
       <c r="P36" s="69"/>
-      <c r="Q36" s="156"/>
-      <c r="R36" s="147"/>
+      <c r="Q36" s="112"/>
+      <c r="R36" s="103"/>
       <c r="S36" s="68"/>
       <c r="T36" s="68"/>
       <c r="U36" s="54"/>
@@ -5414,8 +7762,8 @@
       <c r="AB36" s="32"/>
     </row>
     <row r="37" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
       <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
@@ -5431,8 +7779,8 @@
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="48"/>
-      <c r="Q37" s="157"/>
-      <c r="R37" s="148"/>
+      <c r="Q37" s="113"/>
+      <c r="R37" s="104"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
@@ -5457,6 +7805,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="Q4:AB4"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C14:C15"/>
@@ -5472,14 +7828,6 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021年_テトリス/00_WBS/マイルストーン_2022年.xlsx
+++ b/2021年_テトリス/00_WBS/マイルストーン_2022年.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beaming-boy/growth/テトリス/ドキュメント共有フォルダ/2021年_テトリス/00_WBS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF17E0-074F-734D-9D4F-0753333B3D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D2459E-CCE7-C74D-B0A4-9B977CDC9255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{E44E61D5-ABC8-5643-99A4-FB7AAE6F5200}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{E44E61D5-ABC8-5643-99A4-FB7AAE6F5200}"/>
   </bookViews>
   <sheets>
     <sheet name="ヘッダー" sheetId="2" r:id="rId1"/>
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="78">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1377,11 +1377,13 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="mediumDashed">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1390,11 +1392,13 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="mediumDashed">
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1403,76 +1407,42 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="mediumDashed">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="mediumDashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
+      <left/>
+      <right/>
+      <top style="mediumDashed">
         <color auto="1"/>
       </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="mediumDashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="mediumDashed">
         <color auto="1"/>
       </top>
@@ -1490,7 +1460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1833,6 +1803,141 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1860,51 +1965,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="64" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1932,197 +1992,101 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2177,7 +2141,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3217"/>
+                  <a14:cameraTool cellRange="ヘッダー!A1:AY3" spid="_x0000_s3334"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2210,16 +2174,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>10240</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>266290</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>440401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>215080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>430161</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>153628</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419918</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102418</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2234,8 +2198,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3103305" y="1147096"/>
-          <a:ext cx="3062340" cy="7138629"/>
+          <a:off x="3093062" y="1587499"/>
+          <a:ext cx="3502743" cy="7138629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2395,14 +2359,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>30726</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>10242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>491613</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>471129</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>184353</xdr:rowOff>
     </xdr:to>
@@ -2419,8 +2383,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8879758" y="4352823"/>
-          <a:ext cx="5377016" cy="4004595"/>
+          <a:off x="9811774" y="4311855"/>
+          <a:ext cx="4864920" cy="4004595"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2870,191 +2834,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="159" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="123" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="123" t="s">
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="124"/>
-      <c r="X1" s="124"/>
-      <c r="Y1" s="124"/>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="124"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="123" t="s">
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="145"/>
+      <c r="T1" s="145"/>
+      <c r="U1" s="145"/>
+      <c r="V1" s="145"/>
+      <c r="W1" s="145"/>
+      <c r="X1" s="145"/>
+      <c r="Y1" s="145"/>
+      <c r="Z1" s="145"/>
+      <c r="AA1" s="145"/>
+      <c r="AB1" s="145"/>
+      <c r="AC1" s="145"/>
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="146"/>
+      <c r="AF1" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="123" t="s">
+      <c r="AG1" s="145"/>
+      <c r="AH1" s="145"/>
+      <c r="AI1" s="145"/>
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="124"/>
-      <c r="AM1" s="124"/>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="123" t="s">
+      <c r="AL1" s="145"/>
+      <c r="AM1" s="145"/>
+      <c r="AN1" s="145"/>
+      <c r="AO1" s="146"/>
+      <c r="AP1" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="123" t="s">
+      <c r="AQ1" s="145"/>
+      <c r="AR1" s="145"/>
+      <c r="AS1" s="145"/>
+      <c r="AT1" s="146"/>
+      <c r="AU1" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="124"/>
-      <c r="AX1" s="124"/>
-      <c r="AY1" s="125"/>
+      <c r="AV1" s="145"/>
+      <c r="AW1" s="145"/>
+      <c r="AX1" s="145"/>
+      <c r="AY1" s="146"/>
       <c r="BA1" s="78"/>
     </row>
     <row r="2" spans="1:53" ht="15" customHeight="1">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="126" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="126" t="s">
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="132">
+      <c r="L2" s="148"/>
+      <c r="M2" s="148"/>
+      <c r="N2" s="148"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="148"/>
+      <c r="Q2" s="148"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="148"/>
+      <c r="V2" s="148"/>
+      <c r="W2" s="148"/>
+      <c r="X2" s="148"/>
+      <c r="Y2" s="148"/>
+      <c r="Z2" s="148"/>
+      <c r="AA2" s="148"/>
+      <c r="AB2" s="148"/>
+      <c r="AC2" s="148"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="153">
         <v>44591</v>
       </c>
-      <c r="AG2" s="133"/>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="133"/>
-      <c r="AJ2" s="134"/>
-      <c r="AK2" s="126" t="s">
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="147" t="s">
         <v>26</v>
       </c>
-      <c r="AL2" s="127"/>
-      <c r="AM2" s="127"/>
-      <c r="AN2" s="127"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="132">
+      <c r="AL2" s="148"/>
+      <c r="AM2" s="148"/>
+      <c r="AN2" s="148"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="153">
         <v>44835</v>
       </c>
-      <c r="AQ2" s="133"/>
-      <c r="AR2" s="133"/>
-      <c r="AS2" s="133"/>
-      <c r="AT2" s="134"/>
-      <c r="AU2" s="126" t="s">
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="155"/>
+      <c r="AU2" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="AV2" s="127"/>
-      <c r="AW2" s="127"/>
-      <c r="AX2" s="127"/>
-      <c r="AY2" s="128"/>
+      <c r="AV2" s="148"/>
+      <c r="AW2" s="148"/>
+      <c r="AX2" s="148"/>
+      <c r="AY2" s="149"/>
       <c r="BA2" s="78"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="135"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="129"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="135"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136"/>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="129"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="131"/>
+      <c r="A3" s="165"/>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="151"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="151"/>
+      <c r="Q3" s="151"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="151"/>
+      <c r="X3" s="151"/>
+      <c r="Y3" s="151"/>
+      <c r="Z3" s="151"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="151"/>
+      <c r="AC3" s="151"/>
+      <c r="AD3" s="151"/>
+      <c r="AE3" s="152"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="157"/>
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157"/>
+      <c r="AJ3" s="158"/>
+      <c r="AK3" s="150"/>
+      <c r="AL3" s="151"/>
+      <c r="AM3" s="151"/>
+      <c r="AN3" s="151"/>
+      <c r="AO3" s="152"/>
+      <c r="AP3" s="156"/>
+      <c r="AQ3" s="157"/>
+      <c r="AR3" s="157"/>
+      <c r="AS3" s="157"/>
+      <c r="AT3" s="158"/>
+      <c r="AU3" s="150"/>
+      <c r="AV3" s="151"/>
+      <c r="AW3" s="151"/>
+      <c r="AX3" s="151"/>
+      <c r="AY3" s="152"/>
       <c r="BA3" s="78"/>
     </row>
     <row r="4" spans="1:53" ht="15" customHeight="1">
@@ -3066,6 +3030,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="F2:J3"/>
     <mergeCell ref="K2:AE3"/>
@@ -3074,11 +3043,6 @@
     <mergeCell ref="AP2:AT3"/>
     <mergeCell ref="AU2:AY3"/>
     <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="A1:E3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3178,64 +3142,64 @@
         <v>1</v>
       </c>
       <c r="B8" s="88"/>
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="141">
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171">
         <v>44591</v>
       </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="144" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
+      <c r="L8" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="144" t="s">
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="146"/>
-      <c r="AM8" s="144"/>
-      <c r="AN8" s="145"/>
-      <c r="AO8" s="145"/>
-      <c r="AP8" s="145"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="145"/>
-      <c r="AU8" s="145"/>
-      <c r="AV8" s="145"/>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="146"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="175"/>
+      <c r="Y8" s="175"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="175"/>
+      <c r="AD8" s="175"/>
+      <c r="AE8" s="175"/>
+      <c r="AF8" s="175"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175"/>
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="174"/>
+      <c r="AN8" s="175"/>
+      <c r="AO8" s="175"/>
+      <c r="AP8" s="175"/>
+      <c r="AQ8" s="175"/>
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175"/>
+      <c r="AT8" s="175"/>
+      <c r="AU8" s="175"/>
+      <c r="AV8" s="175"/>
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175"/>
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="176"/>
     </row>
     <row r="9" spans="1:52" ht="95" customHeight="1">
       <c r="A9" s="87">
@@ -3243,64 +3207,64 @@
         <v>2</v>
       </c>
       <c r="B9" s="88"/>
-      <c r="C9" s="138" t="s">
+      <c r="C9" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141">
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="171">
         <v>44835</v>
       </c>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="142"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="144" t="s">
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
+      <c r="L9" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="210" t="s">
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="177" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="144"/>
-      <c r="AN9" s="145"/>
-      <c r="AO9" s="145"/>
-      <c r="AP9" s="145"/>
-      <c r="AQ9" s="145"/>
-      <c r="AR9" s="145"/>
-      <c r="AS9" s="145"/>
-      <c r="AT9" s="145"/>
-      <c r="AU9" s="145"/>
-      <c r="AV9" s="145"/>
-      <c r="AW9" s="145"/>
-      <c r="AX9" s="145"/>
-      <c r="AY9" s="145"/>
-      <c r="AZ9" s="146"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="175"/>
+      <c r="AF9" s="175"/>
+      <c r="AG9" s="175"/>
+      <c r="AH9" s="175"/>
+      <c r="AI9" s="175"/>
+      <c r="AJ9" s="175"/>
+      <c r="AK9" s="175"/>
+      <c r="AL9" s="176"/>
+      <c r="AM9" s="174"/>
+      <c r="AN9" s="175"/>
+      <c r="AO9" s="175"/>
+      <c r="AP9" s="175"/>
+      <c r="AQ9" s="175"/>
+      <c r="AR9" s="175"/>
+      <c r="AS9" s="175"/>
+      <c r="AT9" s="175"/>
+      <c r="AU9" s="175"/>
+      <c r="AV9" s="175"/>
+      <c r="AW9" s="175"/>
+      <c r="AX9" s="175"/>
+      <c r="AY9" s="175"/>
+      <c r="AZ9" s="176"/>
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="87" t="str">
@@ -3308,56 +3272,56 @@
         <v/>
       </c>
       <c r="B10" s="88"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="144"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="144"/>
-      <c r="R10" s="145"/>
-      <c r="S10" s="145"/>
-      <c r="T10" s="145"/>
-      <c r="U10" s="145"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="145"/>
-      <c r="AL10" s="146"/>
-      <c r="AM10" s="144"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="145"/>
-      <c r="AS10" s="145"/>
-      <c r="AT10" s="145"/>
-      <c r="AU10" s="145"/>
-      <c r="AV10" s="145"/>
-      <c r="AW10" s="145"/>
-      <c r="AX10" s="145"/>
-      <c r="AY10" s="145"/>
-      <c r="AZ10" s="146"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="175"/>
+      <c r="AI10" s="175"/>
+      <c r="AJ10" s="175"/>
+      <c r="AK10" s="175"/>
+      <c r="AL10" s="176"/>
+      <c r="AM10" s="174"/>
+      <c r="AN10" s="175"/>
+      <c r="AO10" s="175"/>
+      <c r="AP10" s="175"/>
+      <c r="AQ10" s="175"/>
+      <c r="AR10" s="175"/>
+      <c r="AS10" s="175"/>
+      <c r="AT10" s="175"/>
+      <c r="AU10" s="175"/>
+      <c r="AV10" s="175"/>
+      <c r="AW10" s="175"/>
+      <c r="AX10" s="175"/>
+      <c r="AY10" s="175"/>
+      <c r="AZ10" s="176"/>
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="87" t="str">
@@ -3365,56 +3329,56 @@
         <v/>
       </c>
       <c r="B11" s="88"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="145"/>
-      <c r="T11" s="145"/>
-      <c r="U11" s="145"/>
-      <c r="V11" s="145"/>
-      <c r="W11" s="145"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="145"/>
-      <c r="Z11" s="145"/>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="145"/>
-      <c r="AJ11" s="145"/>
-      <c r="AK11" s="145"/>
-      <c r="AL11" s="146"/>
-      <c r="AM11" s="144"/>
-      <c r="AN11" s="145"/>
-      <c r="AO11" s="145"/>
-      <c r="AP11" s="145"/>
-      <c r="AQ11" s="145"/>
-      <c r="AR11" s="145"/>
-      <c r="AS11" s="145"/>
-      <c r="AT11" s="145"/>
-      <c r="AU11" s="145"/>
-      <c r="AV11" s="145"/>
-      <c r="AW11" s="145"/>
-      <c r="AX11" s="145"/>
-      <c r="AY11" s="145"/>
-      <c r="AZ11" s="146"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="175"/>
+      <c r="AI11" s="175"/>
+      <c r="AJ11" s="175"/>
+      <c r="AK11" s="175"/>
+      <c r="AL11" s="176"/>
+      <c r="AM11" s="174"/>
+      <c r="AN11" s="175"/>
+      <c r="AO11" s="175"/>
+      <c r="AP11" s="175"/>
+      <c r="AQ11" s="175"/>
+      <c r="AR11" s="175"/>
+      <c r="AS11" s="175"/>
+      <c r="AT11" s="175"/>
+      <c r="AU11" s="175"/>
+      <c r="AV11" s="175"/>
+      <c r="AW11" s="175"/>
+      <c r="AX11" s="175"/>
+      <c r="AY11" s="175"/>
+      <c r="AZ11" s="176"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="87" t="str">
@@ -3422,56 +3386,56 @@
         <v/>
       </c>
       <c r="B12" s="88"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="144"/>
-      <c r="R12" s="145"/>
-      <c r="S12" s="145"/>
-      <c r="T12" s="145"/>
-      <c r="U12" s="145"/>
-      <c r="V12" s="145"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
-      <c r="AC12" s="145"/>
-      <c r="AD12" s="145"/>
-      <c r="AE12" s="145"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="145"/>
-      <c r="AJ12" s="145"/>
-      <c r="AK12" s="145"/>
-      <c r="AL12" s="146"/>
-      <c r="AM12" s="144"/>
-      <c r="AN12" s="145"/>
-      <c r="AO12" s="145"/>
-      <c r="AP12" s="145"/>
-      <c r="AQ12" s="145"/>
-      <c r="AR12" s="145"/>
-      <c r="AS12" s="145"/>
-      <c r="AT12" s="145"/>
-      <c r="AU12" s="145"/>
-      <c r="AV12" s="145"/>
-      <c r="AW12" s="145"/>
-      <c r="AX12" s="145"/>
-      <c r="AY12" s="145"/>
-      <c r="AZ12" s="146"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="175"/>
+      <c r="AH12" s="175"/>
+      <c r="AI12" s="175"/>
+      <c r="AJ12" s="175"/>
+      <c r="AK12" s="175"/>
+      <c r="AL12" s="176"/>
+      <c r="AM12" s="174"/>
+      <c r="AN12" s="175"/>
+      <c r="AO12" s="175"/>
+      <c r="AP12" s="175"/>
+      <c r="AQ12" s="175"/>
+      <c r="AR12" s="175"/>
+      <c r="AS12" s="175"/>
+      <c r="AT12" s="175"/>
+      <c r="AU12" s="175"/>
+      <c r="AV12" s="175"/>
+      <c r="AW12" s="175"/>
+      <c r="AX12" s="175"/>
+      <c r="AY12" s="175"/>
+      <c r="AZ12" s="176"/>
     </row>
     <row r="13" spans="1:52">
       <c r="A13" s="87" t="str">
@@ -3479,56 +3443,56 @@
         <v/>
       </c>
       <c r="B13" s="88"/>
-      <c r="C13" s="138"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="144"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
-      <c r="X13" s="145"/>
-      <c r="Y13" s="145"/>
-      <c r="Z13" s="145"/>
-      <c r="AA13" s="145"/>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="145"/>
-      <c r="AE13" s="145"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="145"/>
-      <c r="AJ13" s="145"/>
-      <c r="AK13" s="145"/>
-      <c r="AL13" s="146"/>
-      <c r="AM13" s="144"/>
-      <c r="AN13" s="145"/>
-      <c r="AO13" s="145"/>
-      <c r="AP13" s="145"/>
-      <c r="AQ13" s="145"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="145"/>
-      <c r="AT13" s="145"/>
-      <c r="AU13" s="145"/>
-      <c r="AV13" s="145"/>
-      <c r="AW13" s="145"/>
-      <c r="AX13" s="145"/>
-      <c r="AY13" s="145"/>
-      <c r="AZ13" s="146"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="175"/>
+      <c r="AH13" s="175"/>
+      <c r="AI13" s="175"/>
+      <c r="AJ13" s="175"/>
+      <c r="AK13" s="175"/>
+      <c r="AL13" s="176"/>
+      <c r="AM13" s="174"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="175"/>
+      <c r="AP13" s="175"/>
+      <c r="AQ13" s="175"/>
+      <c r="AR13" s="175"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="175"/>
+      <c r="AU13" s="175"/>
+      <c r="AV13" s="175"/>
+      <c r="AW13" s="175"/>
+      <c r="AX13" s="175"/>
+      <c r="AY13" s="175"/>
+      <c r="AZ13" s="176"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="87" t="str">
@@ -3536,56 +3500,56 @@
         <v/>
       </c>
       <c r="B14" s="88"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="144"/>
-      <c r="R14" s="145"/>
-      <c r="S14" s="145"/>
-      <c r="T14" s="145"/>
-      <c r="U14" s="145"/>
-      <c r="V14" s="145"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="145"/>
-      <c r="AK14" s="145"/>
-      <c r="AL14" s="146"/>
-      <c r="AM14" s="144"/>
-      <c r="AN14" s="145"/>
-      <c r="AO14" s="145"/>
-      <c r="AP14" s="145"/>
-      <c r="AQ14" s="145"/>
-      <c r="AR14" s="145"/>
-      <c r="AS14" s="145"/>
-      <c r="AT14" s="145"/>
-      <c r="AU14" s="145"/>
-      <c r="AV14" s="145"/>
-      <c r="AW14" s="145"/>
-      <c r="AX14" s="145"/>
-      <c r="AY14" s="145"/>
-      <c r="AZ14" s="146"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="175"/>
+      <c r="AF14" s="175"/>
+      <c r="AG14" s="175"/>
+      <c r="AH14" s="175"/>
+      <c r="AI14" s="175"/>
+      <c r="AJ14" s="175"/>
+      <c r="AK14" s="175"/>
+      <c r="AL14" s="176"/>
+      <c r="AM14" s="174"/>
+      <c r="AN14" s="175"/>
+      <c r="AO14" s="175"/>
+      <c r="AP14" s="175"/>
+      <c r="AQ14" s="175"/>
+      <c r="AR14" s="175"/>
+      <c r="AS14" s="175"/>
+      <c r="AT14" s="175"/>
+      <c r="AU14" s="175"/>
+      <c r="AV14" s="175"/>
+      <c r="AW14" s="175"/>
+      <c r="AX14" s="175"/>
+      <c r="AY14" s="175"/>
+      <c r="AZ14" s="176"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="87" t="str">
@@ -3593,56 +3557,56 @@
         <v/>
       </c>
       <c r="B15" s="88"/>
-      <c r="C15" s="138"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="144"/>
-      <c r="R15" s="145"/>
-      <c r="S15" s="145"/>
-      <c r="T15" s="145"/>
-      <c r="U15" s="145"/>
-      <c r="V15" s="145"/>
-      <c r="W15" s="145"/>
-      <c r="X15" s="145"/>
-      <c r="Y15" s="145"/>
-      <c r="Z15" s="145"/>
-      <c r="AA15" s="145"/>
-      <c r="AB15" s="145"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="145"/>
-      <c r="AE15" s="145"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="145"/>
-      <c r="AJ15" s="145"/>
-      <c r="AK15" s="145"/>
-      <c r="AL15" s="146"/>
-      <c r="AM15" s="144"/>
-      <c r="AN15" s="145"/>
-      <c r="AO15" s="145"/>
-      <c r="AP15" s="145"/>
-      <c r="AQ15" s="145"/>
-      <c r="AR15" s="145"/>
-      <c r="AS15" s="145"/>
-      <c r="AT15" s="145"/>
-      <c r="AU15" s="145"/>
-      <c r="AV15" s="145"/>
-      <c r="AW15" s="145"/>
-      <c r="AX15" s="145"/>
-      <c r="AY15" s="145"/>
-      <c r="AZ15" s="146"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="175"/>
+      <c r="AF15" s="175"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="175"/>
+      <c r="AI15" s="175"/>
+      <c r="AJ15" s="175"/>
+      <c r="AK15" s="175"/>
+      <c r="AL15" s="176"/>
+      <c r="AM15" s="174"/>
+      <c r="AN15" s="175"/>
+      <c r="AO15" s="175"/>
+      <c r="AP15" s="175"/>
+      <c r="AQ15" s="175"/>
+      <c r="AR15" s="175"/>
+      <c r="AS15" s="175"/>
+      <c r="AT15" s="175"/>
+      <c r="AU15" s="175"/>
+      <c r="AV15" s="175"/>
+      <c r="AW15" s="175"/>
+      <c r="AX15" s="175"/>
+      <c r="AY15" s="175"/>
+      <c r="AZ15" s="176"/>
     </row>
     <row r="16" spans="1:52">
       <c r="A16" s="87" t="str">
@@ -3650,56 +3614,56 @@
         <v/>
       </c>
       <c r="B16" s="88"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="144"/>
-      <c r="R16" s="145"/>
-      <c r="S16" s="145"/>
-      <c r="T16" s="145"/>
-      <c r="U16" s="145"/>
-      <c r="V16" s="145"/>
-      <c r="W16" s="145"/>
-      <c r="X16" s="145"/>
-      <c r="Y16" s="145"/>
-      <c r="Z16" s="145"/>
-      <c r="AA16" s="145"/>
-      <c r="AB16" s="145"/>
-      <c r="AC16" s="145"/>
-      <c r="AD16" s="145"/>
-      <c r="AE16" s="145"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="145"/>
-      <c r="AJ16" s="145"/>
-      <c r="AK16" s="145"/>
-      <c r="AL16" s="146"/>
-      <c r="AM16" s="144"/>
-      <c r="AN16" s="145"/>
-      <c r="AO16" s="145"/>
-      <c r="AP16" s="145"/>
-      <c r="AQ16" s="145"/>
-      <c r="AR16" s="145"/>
-      <c r="AS16" s="145"/>
-      <c r="AT16" s="145"/>
-      <c r="AU16" s="145"/>
-      <c r="AV16" s="145"/>
-      <c r="AW16" s="145"/>
-      <c r="AX16" s="145"/>
-      <c r="AY16" s="145"/>
-      <c r="AZ16" s="146"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="175"/>
+      <c r="AF16" s="175"/>
+      <c r="AG16" s="175"/>
+      <c r="AH16" s="175"/>
+      <c r="AI16" s="175"/>
+      <c r="AJ16" s="175"/>
+      <c r="AK16" s="175"/>
+      <c r="AL16" s="176"/>
+      <c r="AM16" s="174"/>
+      <c r="AN16" s="175"/>
+      <c r="AO16" s="175"/>
+      <c r="AP16" s="175"/>
+      <c r="AQ16" s="175"/>
+      <c r="AR16" s="175"/>
+      <c r="AS16" s="175"/>
+      <c r="AT16" s="175"/>
+      <c r="AU16" s="175"/>
+      <c r="AV16" s="175"/>
+      <c r="AW16" s="175"/>
+      <c r="AX16" s="175"/>
+      <c r="AY16" s="175"/>
+      <c r="AZ16" s="176"/>
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="87" t="str">
@@ -3707,56 +3671,56 @@
         <v/>
       </c>
       <c r="B17" s="88"/>
-      <c r="C17" s="138"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="144"/>
-      <c r="R17" s="145"/>
-      <c r="S17" s="145"/>
-      <c r="T17" s="145"/>
-      <c r="U17" s="145"/>
-      <c r="V17" s="145"/>
-      <c r="W17" s="145"/>
-      <c r="X17" s="145"/>
-      <c r="Y17" s="145"/>
-      <c r="Z17" s="145"/>
-      <c r="AA17" s="145"/>
-      <c r="AB17" s="145"/>
-      <c r="AC17" s="145"/>
-      <c r="AD17" s="145"/>
-      <c r="AE17" s="145"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="145"/>
-      <c r="AJ17" s="145"/>
-      <c r="AK17" s="145"/>
-      <c r="AL17" s="146"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="145"/>
-      <c r="AO17" s="145"/>
-      <c r="AP17" s="145"/>
-      <c r="AQ17" s="145"/>
-      <c r="AR17" s="145"/>
-      <c r="AS17" s="145"/>
-      <c r="AT17" s="145"/>
-      <c r="AU17" s="145"/>
-      <c r="AV17" s="145"/>
-      <c r="AW17" s="145"/>
-      <c r="AX17" s="145"/>
-      <c r="AY17" s="145"/>
-      <c r="AZ17" s="146"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="175"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="175"/>
+      <c r="AG17" s="175"/>
+      <c r="AH17" s="175"/>
+      <c r="AI17" s="175"/>
+      <c r="AJ17" s="175"/>
+      <c r="AK17" s="175"/>
+      <c r="AL17" s="176"/>
+      <c r="AM17" s="174"/>
+      <c r="AN17" s="175"/>
+      <c r="AO17" s="175"/>
+      <c r="AP17" s="175"/>
+      <c r="AQ17" s="175"/>
+      <c r="AR17" s="175"/>
+      <c r="AS17" s="175"/>
+      <c r="AT17" s="175"/>
+      <c r="AU17" s="175"/>
+      <c r="AV17" s="175"/>
+      <c r="AW17" s="175"/>
+      <c r="AX17" s="175"/>
+      <c r="AY17" s="175"/>
+      <c r="AZ17" s="176"/>
     </row>
     <row r="18" spans="1:52">
       <c r="A18" s="87" t="str">
@@ -3764,56 +3728,56 @@
         <v/>
       </c>
       <c r="B18" s="88"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="144"/>
-      <c r="R18" s="145"/>
-      <c r="S18" s="145"/>
-      <c r="T18" s="145"/>
-      <c r="U18" s="145"/>
-      <c r="V18" s="145"/>
-      <c r="W18" s="145"/>
-      <c r="X18" s="145"/>
-      <c r="Y18" s="145"/>
-      <c r="Z18" s="145"/>
-      <c r="AA18" s="145"/>
-      <c r="AB18" s="145"/>
-      <c r="AC18" s="145"/>
-      <c r="AD18" s="145"/>
-      <c r="AE18" s="145"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="145"/>
-      <c r="AJ18" s="145"/>
-      <c r="AK18" s="145"/>
-      <c r="AL18" s="146"/>
-      <c r="AM18" s="144"/>
-      <c r="AN18" s="145"/>
-      <c r="AO18" s="145"/>
-      <c r="AP18" s="145"/>
-      <c r="AQ18" s="145"/>
-      <c r="AR18" s="145"/>
-      <c r="AS18" s="145"/>
-      <c r="AT18" s="145"/>
-      <c r="AU18" s="145"/>
-      <c r="AV18" s="145"/>
-      <c r="AW18" s="145"/>
-      <c r="AX18" s="145"/>
-      <c r="AY18" s="145"/>
-      <c r="AZ18" s="146"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="175"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="175"/>
+      <c r="AB18" s="175"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="175"/>
+      <c r="AI18" s="175"/>
+      <c r="AJ18" s="175"/>
+      <c r="AK18" s="175"/>
+      <c r="AL18" s="176"/>
+      <c r="AM18" s="174"/>
+      <c r="AN18" s="175"/>
+      <c r="AO18" s="175"/>
+      <c r="AP18" s="175"/>
+      <c r="AQ18" s="175"/>
+      <c r="AR18" s="175"/>
+      <c r="AS18" s="175"/>
+      <c r="AT18" s="175"/>
+      <c r="AU18" s="175"/>
+      <c r="AV18" s="175"/>
+      <c r="AW18" s="175"/>
+      <c r="AX18" s="175"/>
+      <c r="AY18" s="175"/>
+      <c r="AZ18" s="176"/>
     </row>
     <row r="19" spans="1:52">
       <c r="A19" s="87" t="str">
@@ -3821,56 +3785,56 @@
         <v/>
       </c>
       <c r="B19" s="88"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="144"/>
-      <c r="R19" s="145"/>
-      <c r="S19" s="145"/>
-      <c r="T19" s="145"/>
-      <c r="U19" s="145"/>
-      <c r="V19" s="145"/>
-      <c r="W19" s="145"/>
-      <c r="X19" s="145"/>
-      <c r="Y19" s="145"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="145"/>
-      <c r="AD19" s="145"/>
-      <c r="AE19" s="145"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="145"/>
-      <c r="AJ19" s="145"/>
-      <c r="AK19" s="145"/>
-      <c r="AL19" s="146"/>
-      <c r="AM19" s="144"/>
-      <c r="AN19" s="145"/>
-      <c r="AO19" s="145"/>
-      <c r="AP19" s="145"/>
-      <c r="AQ19" s="145"/>
-      <c r="AR19" s="145"/>
-      <c r="AS19" s="145"/>
-      <c r="AT19" s="145"/>
-      <c r="AU19" s="145"/>
-      <c r="AV19" s="145"/>
-      <c r="AW19" s="145"/>
-      <c r="AX19" s="145"/>
-      <c r="AY19" s="145"/>
-      <c r="AZ19" s="146"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
+      <c r="AI19" s="175"/>
+      <c r="AJ19" s="175"/>
+      <c r="AK19" s="175"/>
+      <c r="AL19" s="176"/>
+      <c r="AM19" s="174"/>
+      <c r="AN19" s="175"/>
+      <c r="AO19" s="175"/>
+      <c r="AP19" s="175"/>
+      <c r="AQ19" s="175"/>
+      <c r="AR19" s="175"/>
+      <c r="AS19" s="175"/>
+      <c r="AT19" s="175"/>
+      <c r="AU19" s="175"/>
+      <c r="AV19" s="175"/>
+      <c r="AW19" s="175"/>
+      <c r="AX19" s="175"/>
+      <c r="AY19" s="175"/>
+      <c r="AZ19" s="176"/>
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="87" t="str">
@@ -3878,56 +3842,56 @@
         <v/>
       </c>
       <c r="B20" s="88"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="144"/>
-      <c r="R20" s="145"/>
-      <c r="S20" s="145"/>
-      <c r="T20" s="145"/>
-      <c r="U20" s="145"/>
-      <c r="V20" s="145"/>
-      <c r="W20" s="145"/>
-      <c r="X20" s="145"/>
-      <c r="Y20" s="145"/>
-      <c r="Z20" s="145"/>
-      <c r="AA20" s="145"/>
-      <c r="AB20" s="145"/>
-      <c r="AC20" s="145"/>
-      <c r="AD20" s="145"/>
-      <c r="AE20" s="145"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="145"/>
-      <c r="AJ20" s="145"/>
-      <c r="AK20" s="145"/>
-      <c r="AL20" s="146"/>
-      <c r="AM20" s="144"/>
-      <c r="AN20" s="145"/>
-      <c r="AO20" s="145"/>
-      <c r="AP20" s="145"/>
-      <c r="AQ20" s="145"/>
-      <c r="AR20" s="145"/>
-      <c r="AS20" s="145"/>
-      <c r="AT20" s="145"/>
-      <c r="AU20" s="145"/>
-      <c r="AV20" s="145"/>
-      <c r="AW20" s="145"/>
-      <c r="AX20" s="145"/>
-      <c r="AY20" s="145"/>
-      <c r="AZ20" s="146"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="169"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="176"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="175"/>
+      <c r="AB20" s="175"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="175"/>
+      <c r="AI20" s="175"/>
+      <c r="AJ20" s="175"/>
+      <c r="AK20" s="175"/>
+      <c r="AL20" s="176"/>
+      <c r="AM20" s="174"/>
+      <c r="AN20" s="175"/>
+      <c r="AO20" s="175"/>
+      <c r="AP20" s="175"/>
+      <c r="AQ20" s="175"/>
+      <c r="AR20" s="175"/>
+      <c r="AS20" s="175"/>
+      <c r="AT20" s="175"/>
+      <c r="AU20" s="175"/>
+      <c r="AV20" s="175"/>
+      <c r="AW20" s="175"/>
+      <c r="AX20" s="175"/>
+      <c r="AY20" s="175"/>
+      <c r="AZ20" s="176"/>
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="87" t="str">
@@ -3935,56 +3899,56 @@
         <v/>
       </c>
       <c r="B21" s="88"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="145"/>
-      <c r="S21" s="145"/>
-      <c r="T21" s="145"/>
-      <c r="U21" s="145"/>
-      <c r="V21" s="145"/>
-      <c r="W21" s="145"/>
-      <c r="X21" s="145"/>
-      <c r="Y21" s="145"/>
-      <c r="Z21" s="145"/>
-      <c r="AA21" s="145"/>
-      <c r="AB21" s="145"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="145"/>
-      <c r="AE21" s="145"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="145"/>
-      <c r="AJ21" s="145"/>
-      <c r="AK21" s="145"/>
-      <c r="AL21" s="146"/>
-      <c r="AM21" s="144"/>
-      <c r="AN21" s="145"/>
-      <c r="AO21" s="145"/>
-      <c r="AP21" s="145"/>
-      <c r="AQ21" s="145"/>
-      <c r="AR21" s="145"/>
-      <c r="AS21" s="145"/>
-      <c r="AT21" s="145"/>
-      <c r="AU21" s="145"/>
-      <c r="AV21" s="145"/>
-      <c r="AW21" s="145"/>
-      <c r="AX21" s="145"/>
-      <c r="AY21" s="145"/>
-      <c r="AZ21" s="146"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="169"/>
+      <c r="E21" s="169"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="175"/>
+      <c r="AG21" s="175"/>
+      <c r="AH21" s="175"/>
+      <c r="AI21" s="175"/>
+      <c r="AJ21" s="175"/>
+      <c r="AK21" s="175"/>
+      <c r="AL21" s="176"/>
+      <c r="AM21" s="174"/>
+      <c r="AN21" s="175"/>
+      <c r="AO21" s="175"/>
+      <c r="AP21" s="175"/>
+      <c r="AQ21" s="175"/>
+      <c r="AR21" s="175"/>
+      <c r="AS21" s="175"/>
+      <c r="AT21" s="175"/>
+      <c r="AU21" s="175"/>
+      <c r="AV21" s="175"/>
+      <c r="AW21" s="175"/>
+      <c r="AX21" s="175"/>
+      <c r="AY21" s="175"/>
+      <c r="AZ21" s="176"/>
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="87" t="str">
@@ -3992,56 +3956,56 @@
         <v/>
       </c>
       <c r="B22" s="88"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="145"/>
-      <c r="S22" s="145"/>
-      <c r="T22" s="145"/>
-      <c r="U22" s="145"/>
-      <c r="V22" s="145"/>
-      <c r="W22" s="145"/>
-      <c r="X22" s="145"/>
-      <c r="Y22" s="145"/>
-      <c r="Z22" s="145"/>
-      <c r="AA22" s="145"/>
-      <c r="AB22" s="145"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="145"/>
-      <c r="AE22" s="145"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="145"/>
-      <c r="AJ22" s="145"/>
-      <c r="AK22" s="145"/>
-      <c r="AL22" s="146"/>
-      <c r="AM22" s="144"/>
-      <c r="AN22" s="145"/>
-      <c r="AO22" s="145"/>
-      <c r="AP22" s="145"/>
-      <c r="AQ22" s="145"/>
-      <c r="AR22" s="145"/>
-      <c r="AS22" s="145"/>
-      <c r="AT22" s="145"/>
-      <c r="AU22" s="145"/>
-      <c r="AV22" s="145"/>
-      <c r="AW22" s="145"/>
-      <c r="AX22" s="145"/>
-      <c r="AY22" s="145"/>
-      <c r="AZ22" s="146"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="176"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="175"/>
+      <c r="AB22" s="175"/>
+      <c r="AC22" s="175"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="175"/>
+      <c r="AF22" s="175"/>
+      <c r="AG22" s="175"/>
+      <c r="AH22" s="175"/>
+      <c r="AI22" s="175"/>
+      <c r="AJ22" s="175"/>
+      <c r="AK22" s="175"/>
+      <c r="AL22" s="176"/>
+      <c r="AM22" s="174"/>
+      <c r="AN22" s="175"/>
+      <c r="AO22" s="175"/>
+      <c r="AP22" s="175"/>
+      <c r="AQ22" s="175"/>
+      <c r="AR22" s="175"/>
+      <c r="AS22" s="175"/>
+      <c r="AT22" s="175"/>
+      <c r="AU22" s="175"/>
+      <c r="AV22" s="175"/>
+      <c r="AW22" s="175"/>
+      <c r="AX22" s="175"/>
+      <c r="AY22" s="175"/>
+      <c r="AZ22" s="176"/>
     </row>
     <row r="23" spans="1:52">
       <c r="A23" s="87" t="str">
@@ -4049,56 +4013,56 @@
         <v/>
       </c>
       <c r="B23" s="88"/>
-      <c r="C23" s="138"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="144"/>
-      <c r="R23" s="145"/>
-      <c r="S23" s="145"/>
-      <c r="T23" s="145"/>
-      <c r="U23" s="145"/>
-      <c r="V23" s="145"/>
-      <c r="W23" s="145"/>
-      <c r="X23" s="145"/>
-      <c r="Y23" s="145"/>
-      <c r="Z23" s="145"/>
-      <c r="AA23" s="145"/>
-      <c r="AB23" s="145"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="145"/>
-      <c r="AE23" s="145"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="145"/>
-      <c r="AJ23" s="145"/>
-      <c r="AK23" s="145"/>
-      <c r="AL23" s="146"/>
-      <c r="AM23" s="144"/>
-      <c r="AN23" s="145"/>
-      <c r="AO23" s="145"/>
-      <c r="AP23" s="145"/>
-      <c r="AQ23" s="145"/>
-      <c r="AR23" s="145"/>
-      <c r="AS23" s="145"/>
-      <c r="AT23" s="145"/>
-      <c r="AU23" s="145"/>
-      <c r="AV23" s="145"/>
-      <c r="AW23" s="145"/>
-      <c r="AX23" s="145"/>
-      <c r="AY23" s="145"/>
-      <c r="AZ23" s="146"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="176"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="175"/>
+      <c r="AF23" s="175"/>
+      <c r="AG23" s="175"/>
+      <c r="AH23" s="175"/>
+      <c r="AI23" s="175"/>
+      <c r="AJ23" s="175"/>
+      <c r="AK23" s="175"/>
+      <c r="AL23" s="176"/>
+      <c r="AM23" s="174"/>
+      <c r="AN23" s="175"/>
+      <c r="AO23" s="175"/>
+      <c r="AP23" s="175"/>
+      <c r="AQ23" s="175"/>
+      <c r="AR23" s="175"/>
+      <c r="AS23" s="175"/>
+      <c r="AT23" s="175"/>
+      <c r="AU23" s="175"/>
+      <c r="AV23" s="175"/>
+      <c r="AW23" s="175"/>
+      <c r="AX23" s="175"/>
+      <c r="AY23" s="175"/>
+      <c r="AZ23" s="176"/>
     </row>
     <row r="24" spans="1:52">
       <c r="A24" s="87" t="str">
@@ -4106,56 +4070,56 @@
         <v/>
       </c>
       <c r="B24" s="88"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="144"/>
-      <c r="R24" s="145"/>
-      <c r="S24" s="145"/>
-      <c r="T24" s="145"/>
-      <c r="U24" s="145"/>
-      <c r="V24" s="145"/>
-      <c r="W24" s="145"/>
-      <c r="X24" s="145"/>
-      <c r="Y24" s="145"/>
-      <c r="Z24" s="145"/>
-      <c r="AA24" s="145"/>
-      <c r="AB24" s="145"/>
-      <c r="AC24" s="145"/>
-      <c r="AD24" s="145"/>
-      <c r="AE24" s="145"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="145"/>
-      <c r="AJ24" s="145"/>
-      <c r="AK24" s="145"/>
-      <c r="AL24" s="146"/>
-      <c r="AM24" s="144"/>
-      <c r="AN24" s="145"/>
-      <c r="AO24" s="145"/>
-      <c r="AP24" s="145"/>
-      <c r="AQ24" s="145"/>
-      <c r="AR24" s="145"/>
-      <c r="AS24" s="145"/>
-      <c r="AT24" s="145"/>
-      <c r="AU24" s="145"/>
-      <c r="AV24" s="145"/>
-      <c r="AW24" s="145"/>
-      <c r="AX24" s="145"/>
-      <c r="AY24" s="145"/>
-      <c r="AZ24" s="146"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="176"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="175"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="175"/>
+      <c r="AF24" s="175"/>
+      <c r="AG24" s="175"/>
+      <c r="AH24" s="175"/>
+      <c r="AI24" s="175"/>
+      <c r="AJ24" s="175"/>
+      <c r="AK24" s="175"/>
+      <c r="AL24" s="176"/>
+      <c r="AM24" s="174"/>
+      <c r="AN24" s="175"/>
+      <c r="AO24" s="175"/>
+      <c r="AP24" s="175"/>
+      <c r="AQ24" s="175"/>
+      <c r="AR24" s="175"/>
+      <c r="AS24" s="175"/>
+      <c r="AT24" s="175"/>
+      <c r="AU24" s="175"/>
+      <c r="AV24" s="175"/>
+      <c r="AW24" s="175"/>
+      <c r="AX24" s="175"/>
+      <c r="AY24" s="175"/>
+      <c r="AZ24" s="176"/>
     </row>
     <row r="25" spans="1:52">
       <c r="A25" s="87" t="str">
@@ -4163,56 +4127,56 @@
         <v/>
       </c>
       <c r="B25" s="88"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="144"/>
-      <c r="R25" s="145"/>
-      <c r="S25" s="145"/>
-      <c r="T25" s="145"/>
-      <c r="U25" s="145"/>
-      <c r="V25" s="145"/>
-      <c r="W25" s="145"/>
-      <c r="X25" s="145"/>
-      <c r="Y25" s="145"/>
-      <c r="Z25" s="145"/>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="145"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="145"/>
-      <c r="AJ25" s="145"/>
-      <c r="AK25" s="145"/>
-      <c r="AL25" s="146"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="145"/>
-      <c r="AO25" s="145"/>
-      <c r="AP25" s="145"/>
-      <c r="AQ25" s="145"/>
-      <c r="AR25" s="145"/>
-      <c r="AS25" s="145"/>
-      <c r="AT25" s="145"/>
-      <c r="AU25" s="145"/>
-      <c r="AV25" s="145"/>
-      <c r="AW25" s="145"/>
-      <c r="AX25" s="145"/>
-      <c r="AY25" s="145"/>
-      <c r="AZ25" s="146"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="175"/>
+      <c r="Y25" s="175"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="175"/>
+      <c r="AF25" s="175"/>
+      <c r="AG25" s="175"/>
+      <c r="AH25" s="175"/>
+      <c r="AI25" s="175"/>
+      <c r="AJ25" s="175"/>
+      <c r="AK25" s="175"/>
+      <c r="AL25" s="176"/>
+      <c r="AM25" s="174"/>
+      <c r="AN25" s="175"/>
+      <c r="AO25" s="175"/>
+      <c r="AP25" s="175"/>
+      <c r="AQ25" s="175"/>
+      <c r="AR25" s="175"/>
+      <c r="AS25" s="175"/>
+      <c r="AT25" s="175"/>
+      <c r="AU25" s="175"/>
+      <c r="AV25" s="175"/>
+      <c r="AW25" s="175"/>
+      <c r="AX25" s="175"/>
+      <c r="AY25" s="175"/>
+      <c r="AZ25" s="176"/>
     </row>
     <row r="26" spans="1:52">
       <c r="A26" s="87" t="str">
@@ -4220,56 +4184,56 @@
         <v/>
       </c>
       <c r="B26" s="88"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="144"/>
-      <c r="R26" s="145"/>
-      <c r="S26" s="145"/>
-      <c r="T26" s="145"/>
-      <c r="U26" s="145"/>
-      <c r="V26" s="145"/>
-      <c r="W26" s="145"/>
-      <c r="X26" s="145"/>
-      <c r="Y26" s="145"/>
-      <c r="Z26" s="145"/>
-      <c r="AA26" s="145"/>
-      <c r="AB26" s="145"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="145"/>
-      <c r="AE26" s="145"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="145"/>
-      <c r="AJ26" s="145"/>
-      <c r="AK26" s="145"/>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="144"/>
-      <c r="AN26" s="145"/>
-      <c r="AO26" s="145"/>
-      <c r="AP26" s="145"/>
-      <c r="AQ26" s="145"/>
-      <c r="AR26" s="145"/>
-      <c r="AS26" s="145"/>
-      <c r="AT26" s="145"/>
-      <c r="AU26" s="145"/>
-      <c r="AV26" s="145"/>
-      <c r="AW26" s="145"/>
-      <c r="AX26" s="145"/>
-      <c r="AY26" s="145"/>
-      <c r="AZ26" s="146"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="169"/>
+      <c r="E26" s="169"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="175"/>
+      <c r="Y26" s="175"/>
+      <c r="Z26" s="175"/>
+      <c r="AA26" s="175"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="175"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="175"/>
+      <c r="AF26" s="175"/>
+      <c r="AG26" s="175"/>
+      <c r="AH26" s="175"/>
+      <c r="AI26" s="175"/>
+      <c r="AJ26" s="175"/>
+      <c r="AK26" s="175"/>
+      <c r="AL26" s="176"/>
+      <c r="AM26" s="174"/>
+      <c r="AN26" s="175"/>
+      <c r="AO26" s="175"/>
+      <c r="AP26" s="175"/>
+      <c r="AQ26" s="175"/>
+      <c r="AR26" s="175"/>
+      <c r="AS26" s="175"/>
+      <c r="AT26" s="175"/>
+      <c r="AU26" s="175"/>
+      <c r="AV26" s="175"/>
+      <c r="AW26" s="175"/>
+      <c r="AX26" s="175"/>
+      <c r="AY26" s="175"/>
+      <c r="AZ26" s="176"/>
     </row>
     <row r="27" spans="1:52">
       <c r="A27" s="87" t="str">
@@ -4277,56 +4241,56 @@
         <v/>
       </c>
       <c r="B27" s="88"/>
-      <c r="C27" s="138"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="144"/>
-      <c r="R27" s="145"/>
-      <c r="S27" s="145"/>
-      <c r="T27" s="145"/>
-      <c r="U27" s="145"/>
-      <c r="V27" s="145"/>
-      <c r="W27" s="145"/>
-      <c r="X27" s="145"/>
-      <c r="Y27" s="145"/>
-      <c r="Z27" s="145"/>
-      <c r="AA27" s="145"/>
-      <c r="AB27" s="145"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="145"/>
-      <c r="AE27" s="145"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="145"/>
-      <c r="AJ27" s="145"/>
-      <c r="AK27" s="145"/>
-      <c r="AL27" s="146"/>
-      <c r="AM27" s="144"/>
-      <c r="AN27" s="145"/>
-      <c r="AO27" s="145"/>
-      <c r="AP27" s="145"/>
-      <c r="AQ27" s="145"/>
-      <c r="AR27" s="145"/>
-      <c r="AS27" s="145"/>
-      <c r="AT27" s="145"/>
-      <c r="AU27" s="145"/>
-      <c r="AV27" s="145"/>
-      <c r="AW27" s="145"/>
-      <c r="AX27" s="145"/>
-      <c r="AY27" s="145"/>
-      <c r="AZ27" s="146"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="169"/>
+      <c r="E27" s="169"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="176"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="175"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="175"/>
+      <c r="AF27" s="175"/>
+      <c r="AG27" s="175"/>
+      <c r="AH27" s="175"/>
+      <c r="AI27" s="175"/>
+      <c r="AJ27" s="175"/>
+      <c r="AK27" s="175"/>
+      <c r="AL27" s="176"/>
+      <c r="AM27" s="174"/>
+      <c r="AN27" s="175"/>
+      <c r="AO27" s="175"/>
+      <c r="AP27" s="175"/>
+      <c r="AQ27" s="175"/>
+      <c r="AR27" s="175"/>
+      <c r="AS27" s="175"/>
+      <c r="AT27" s="175"/>
+      <c r="AU27" s="175"/>
+      <c r="AV27" s="175"/>
+      <c r="AW27" s="175"/>
+      <c r="AX27" s="175"/>
+      <c r="AY27" s="175"/>
+      <c r="AZ27" s="176"/>
     </row>
     <row r="28" spans="1:52">
       <c r="A28" s="87" t="str">
@@ -4334,56 +4298,56 @@
         <v/>
       </c>
       <c r="B28" s="88"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="144"/>
-      <c r="R28" s="145"/>
-      <c r="S28" s="145"/>
-      <c r="T28" s="145"/>
-      <c r="U28" s="145"/>
-      <c r="V28" s="145"/>
-      <c r="W28" s="145"/>
-      <c r="X28" s="145"/>
-      <c r="Y28" s="145"/>
-      <c r="Z28" s="145"/>
-      <c r="AA28" s="145"/>
-      <c r="AB28" s="145"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="145"/>
-      <c r="AE28" s="145"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="145"/>
-      <c r="AJ28" s="145"/>
-      <c r="AK28" s="145"/>
-      <c r="AL28" s="146"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="145"/>
-      <c r="AO28" s="145"/>
-      <c r="AP28" s="145"/>
-      <c r="AQ28" s="145"/>
-      <c r="AR28" s="145"/>
-      <c r="AS28" s="145"/>
-      <c r="AT28" s="145"/>
-      <c r="AU28" s="145"/>
-      <c r="AV28" s="145"/>
-      <c r="AW28" s="145"/>
-      <c r="AX28" s="145"/>
-      <c r="AY28" s="145"/>
-      <c r="AZ28" s="146"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="176"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="175"/>
+      <c r="AF28" s="175"/>
+      <c r="AG28" s="175"/>
+      <c r="AH28" s="175"/>
+      <c r="AI28" s="175"/>
+      <c r="AJ28" s="175"/>
+      <c r="AK28" s="175"/>
+      <c r="AL28" s="176"/>
+      <c r="AM28" s="174"/>
+      <c r="AN28" s="175"/>
+      <c r="AO28" s="175"/>
+      <c r="AP28" s="175"/>
+      <c r="AQ28" s="175"/>
+      <c r="AR28" s="175"/>
+      <c r="AS28" s="175"/>
+      <c r="AT28" s="175"/>
+      <c r="AU28" s="175"/>
+      <c r="AV28" s="175"/>
+      <c r="AW28" s="175"/>
+      <c r="AX28" s="175"/>
+      <c r="AY28" s="175"/>
+      <c r="AZ28" s="176"/>
     </row>
     <row r="29" spans="1:52">
       <c r="A29" s="87" t="str">
@@ -4391,56 +4355,56 @@
         <v/>
       </c>
       <c r="B29" s="88"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="144"/>
-      <c r="R29" s="145"/>
-      <c r="S29" s="145"/>
-      <c r="T29" s="145"/>
-      <c r="U29" s="145"/>
-      <c r="V29" s="145"/>
-      <c r="W29" s="145"/>
-      <c r="X29" s="145"/>
-      <c r="Y29" s="145"/>
-      <c r="Z29" s="145"/>
-      <c r="AA29" s="145"/>
-      <c r="AB29" s="145"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="145"/>
-      <c r="AE29" s="145"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="145"/>
-      <c r="AJ29" s="145"/>
-      <c r="AK29" s="145"/>
-      <c r="AL29" s="146"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="145"/>
-      <c r="AO29" s="145"/>
-      <c r="AP29" s="145"/>
-      <c r="AQ29" s="145"/>
-      <c r="AR29" s="145"/>
-      <c r="AS29" s="145"/>
-      <c r="AT29" s="145"/>
-      <c r="AU29" s="145"/>
-      <c r="AV29" s="145"/>
-      <c r="AW29" s="145"/>
-      <c r="AX29" s="145"/>
-      <c r="AY29" s="145"/>
-      <c r="AZ29" s="146"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="169"/>
+      <c r="E29" s="169"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="175"/>
+      <c r="AF29" s="175"/>
+      <c r="AG29" s="175"/>
+      <c r="AH29" s="175"/>
+      <c r="AI29" s="175"/>
+      <c r="AJ29" s="175"/>
+      <c r="AK29" s="175"/>
+      <c r="AL29" s="176"/>
+      <c r="AM29" s="174"/>
+      <c r="AN29" s="175"/>
+      <c r="AO29" s="175"/>
+      <c r="AP29" s="175"/>
+      <c r="AQ29" s="175"/>
+      <c r="AR29" s="175"/>
+      <c r="AS29" s="175"/>
+      <c r="AT29" s="175"/>
+      <c r="AU29" s="175"/>
+      <c r="AV29" s="175"/>
+      <c r="AW29" s="175"/>
+      <c r="AX29" s="175"/>
+      <c r="AY29" s="175"/>
+      <c r="AZ29" s="176"/>
     </row>
     <row r="30" spans="1:52">
       <c r="A30" s="87" t="str">
@@ -4448,56 +4412,56 @@
         <v/>
       </c>
       <c r="B30" s="88"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="145"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="145"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
-      <c r="W30" s="145"/>
-      <c r="X30" s="145"/>
-      <c r="Y30" s="145"/>
-      <c r="Z30" s="145"/>
-      <c r="AA30" s="145"/>
-      <c r="AB30" s="145"/>
-      <c r="AC30" s="145"/>
-      <c r="AD30" s="145"/>
-      <c r="AE30" s="145"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="145"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="145"/>
-      <c r="AL30" s="146"/>
-      <c r="AM30" s="144"/>
-      <c r="AN30" s="145"/>
-      <c r="AO30" s="145"/>
-      <c r="AP30" s="145"/>
-      <c r="AQ30" s="145"/>
-      <c r="AR30" s="145"/>
-      <c r="AS30" s="145"/>
-      <c r="AT30" s="145"/>
-      <c r="AU30" s="145"/>
-      <c r="AV30" s="145"/>
-      <c r="AW30" s="145"/>
-      <c r="AX30" s="145"/>
-      <c r="AY30" s="145"/>
-      <c r="AZ30" s="146"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="175"/>
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="175"/>
+      <c r="AC30" s="175"/>
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="175"/>
+      <c r="AF30" s="175"/>
+      <c r="AG30" s="175"/>
+      <c r="AH30" s="175"/>
+      <c r="AI30" s="175"/>
+      <c r="AJ30" s="175"/>
+      <c r="AK30" s="175"/>
+      <c r="AL30" s="176"/>
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="175"/>
+      <c r="AO30" s="175"/>
+      <c r="AP30" s="175"/>
+      <c r="AQ30" s="175"/>
+      <c r="AR30" s="175"/>
+      <c r="AS30" s="175"/>
+      <c r="AT30" s="175"/>
+      <c r="AU30" s="175"/>
+      <c r="AV30" s="175"/>
+      <c r="AW30" s="175"/>
+      <c r="AX30" s="175"/>
+      <c r="AY30" s="175"/>
+      <c r="AZ30" s="176"/>
     </row>
     <row r="31" spans="1:52">
       <c r="A31" s="87" t="str">
@@ -4505,56 +4469,56 @@
         <v/>
       </c>
       <c r="B31" s="88"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="145"/>
-      <c r="S31" s="145"/>
-      <c r="T31" s="145"/>
-      <c r="U31" s="145"/>
-      <c r="V31" s="145"/>
-      <c r="W31" s="145"/>
-      <c r="X31" s="145"/>
-      <c r="Y31" s="145"/>
-      <c r="Z31" s="145"/>
-      <c r="AA31" s="145"/>
-      <c r="AB31" s="145"/>
-      <c r="AC31" s="145"/>
-      <c r="AD31" s="145"/>
-      <c r="AE31" s="145"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="145"/>
-      <c r="AJ31" s="145"/>
-      <c r="AK31" s="145"/>
-      <c r="AL31" s="146"/>
-      <c r="AM31" s="144"/>
-      <c r="AN31" s="145"/>
-      <c r="AO31" s="145"/>
-      <c r="AP31" s="145"/>
-      <c r="AQ31" s="145"/>
-      <c r="AR31" s="145"/>
-      <c r="AS31" s="145"/>
-      <c r="AT31" s="145"/>
-      <c r="AU31" s="145"/>
-      <c r="AV31" s="145"/>
-      <c r="AW31" s="145"/>
-      <c r="AX31" s="145"/>
-      <c r="AY31" s="145"/>
-      <c r="AZ31" s="146"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="169"/>
+      <c r="E31" s="169"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="173"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="175"/>
+      <c r="Z31" s="175"/>
+      <c r="AA31" s="175"/>
+      <c r="AB31" s="175"/>
+      <c r="AC31" s="175"/>
+      <c r="AD31" s="175"/>
+      <c r="AE31" s="175"/>
+      <c r="AF31" s="175"/>
+      <c r="AG31" s="175"/>
+      <c r="AH31" s="175"/>
+      <c r="AI31" s="175"/>
+      <c r="AJ31" s="175"/>
+      <c r="AK31" s="175"/>
+      <c r="AL31" s="176"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="175"/>
+      <c r="AO31" s="175"/>
+      <c r="AP31" s="175"/>
+      <c r="AQ31" s="175"/>
+      <c r="AR31" s="175"/>
+      <c r="AS31" s="175"/>
+      <c r="AT31" s="175"/>
+      <c r="AU31" s="175"/>
+      <c r="AV31" s="175"/>
+      <c r="AW31" s="175"/>
+      <c r="AX31" s="175"/>
+      <c r="AY31" s="175"/>
+      <c r="AZ31" s="176"/>
     </row>
     <row r="32" spans="1:52">
       <c r="A32" s="87" t="str">
@@ -4562,56 +4526,56 @@
         <v/>
       </c>
       <c r="B32" s="88"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="145"/>
-      <c r="S32" s="145"/>
-      <c r="T32" s="145"/>
-      <c r="U32" s="145"/>
-      <c r="V32" s="145"/>
-      <c r="W32" s="145"/>
-      <c r="X32" s="145"/>
-      <c r="Y32" s="145"/>
-      <c r="Z32" s="145"/>
-      <c r="AA32" s="145"/>
-      <c r="AB32" s="145"/>
-      <c r="AC32" s="145"/>
-      <c r="AD32" s="145"/>
-      <c r="AE32" s="145"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="145"/>
-      <c r="AJ32" s="145"/>
-      <c r="AK32" s="145"/>
-      <c r="AL32" s="146"/>
-      <c r="AM32" s="144"/>
-      <c r="AN32" s="145"/>
-      <c r="AO32" s="145"/>
-      <c r="AP32" s="145"/>
-      <c r="AQ32" s="145"/>
-      <c r="AR32" s="145"/>
-      <c r="AS32" s="145"/>
-      <c r="AT32" s="145"/>
-      <c r="AU32" s="145"/>
-      <c r="AV32" s="145"/>
-      <c r="AW32" s="145"/>
-      <c r="AX32" s="145"/>
-      <c r="AY32" s="145"/>
-      <c r="AZ32" s="146"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
+      <c r="AA32" s="175"/>
+      <c r="AB32" s="175"/>
+      <c r="AC32" s="175"/>
+      <c r="AD32" s="175"/>
+      <c r="AE32" s="175"/>
+      <c r="AF32" s="175"/>
+      <c r="AG32" s="175"/>
+      <c r="AH32" s="175"/>
+      <c r="AI32" s="175"/>
+      <c r="AJ32" s="175"/>
+      <c r="AK32" s="175"/>
+      <c r="AL32" s="176"/>
+      <c r="AM32" s="174"/>
+      <c r="AN32" s="175"/>
+      <c r="AO32" s="175"/>
+      <c r="AP32" s="175"/>
+      <c r="AQ32" s="175"/>
+      <c r="AR32" s="175"/>
+      <c r="AS32" s="175"/>
+      <c r="AT32" s="175"/>
+      <c r="AU32" s="175"/>
+      <c r="AV32" s="175"/>
+      <c r="AW32" s="175"/>
+      <c r="AX32" s="175"/>
+      <c r="AY32" s="175"/>
+      <c r="AZ32" s="176"/>
     </row>
     <row r="33" spans="1:52">
       <c r="A33" s="87" t="str">
@@ -4619,56 +4583,56 @@
         <v/>
       </c>
       <c r="B33" s="88"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="144"/>
-      <c r="R33" s="145"/>
-      <c r="S33" s="145"/>
-      <c r="T33" s="145"/>
-      <c r="U33" s="145"/>
-      <c r="V33" s="145"/>
-      <c r="W33" s="145"/>
-      <c r="X33" s="145"/>
-      <c r="Y33" s="145"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="145"/>
-      <c r="AB33" s="145"/>
-      <c r="AC33" s="145"/>
-      <c r="AD33" s="145"/>
-      <c r="AE33" s="145"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="145"/>
-      <c r="AJ33" s="145"/>
-      <c r="AK33" s="145"/>
-      <c r="AL33" s="146"/>
-      <c r="AM33" s="144"/>
-      <c r="AN33" s="145"/>
-      <c r="AO33" s="145"/>
-      <c r="AP33" s="145"/>
-      <c r="AQ33" s="145"/>
-      <c r="AR33" s="145"/>
-      <c r="AS33" s="145"/>
-      <c r="AT33" s="145"/>
-      <c r="AU33" s="145"/>
-      <c r="AV33" s="145"/>
-      <c r="AW33" s="145"/>
-      <c r="AX33" s="145"/>
-      <c r="AY33" s="145"/>
-      <c r="AZ33" s="146"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="176"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="175"/>
+      <c r="Y33" s="175"/>
+      <c r="Z33" s="175"/>
+      <c r="AA33" s="175"/>
+      <c r="AB33" s="175"/>
+      <c r="AC33" s="175"/>
+      <c r="AD33" s="175"/>
+      <c r="AE33" s="175"/>
+      <c r="AF33" s="175"/>
+      <c r="AG33" s="175"/>
+      <c r="AH33" s="175"/>
+      <c r="AI33" s="175"/>
+      <c r="AJ33" s="175"/>
+      <c r="AK33" s="175"/>
+      <c r="AL33" s="176"/>
+      <c r="AM33" s="174"/>
+      <c r="AN33" s="175"/>
+      <c r="AO33" s="175"/>
+      <c r="AP33" s="175"/>
+      <c r="AQ33" s="175"/>
+      <c r="AR33" s="175"/>
+      <c r="AS33" s="175"/>
+      <c r="AT33" s="175"/>
+      <c r="AU33" s="175"/>
+      <c r="AV33" s="175"/>
+      <c r="AW33" s="175"/>
+      <c r="AX33" s="175"/>
+      <c r="AY33" s="175"/>
+      <c r="AZ33" s="176"/>
     </row>
     <row r="34" spans="1:52">
       <c r="A34" s="87" t="str">
@@ -4676,56 +4640,56 @@
         <v/>
       </c>
       <c r="B34" s="88"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="144"/>
-      <c r="M34" s="145"/>
-      <c r="N34" s="145"/>
-      <c r="O34" s="145"/>
-      <c r="P34" s="146"/>
-      <c r="Q34" s="144"/>
-      <c r="R34" s="145"/>
-      <c r="S34" s="145"/>
-      <c r="T34" s="145"/>
-      <c r="U34" s="145"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="145"/>
-      <c r="Y34" s="145"/>
-      <c r="Z34" s="145"/>
-      <c r="AA34" s="145"/>
-      <c r="AB34" s="145"/>
-      <c r="AC34" s="145"/>
-      <c r="AD34" s="145"/>
-      <c r="AE34" s="145"/>
-      <c r="AF34" s="145"/>
-      <c r="AG34" s="145"/>
-      <c r="AH34" s="145"/>
-      <c r="AI34" s="145"/>
-      <c r="AJ34" s="145"/>
-      <c r="AK34" s="145"/>
-      <c r="AL34" s="146"/>
-      <c r="AM34" s="144"/>
-      <c r="AN34" s="145"/>
-      <c r="AO34" s="145"/>
-      <c r="AP34" s="145"/>
-      <c r="AQ34" s="145"/>
-      <c r="AR34" s="145"/>
-      <c r="AS34" s="145"/>
-      <c r="AT34" s="145"/>
-      <c r="AU34" s="145"/>
-      <c r="AV34" s="145"/>
-      <c r="AW34" s="145"/>
-      <c r="AX34" s="145"/>
-      <c r="AY34" s="145"/>
-      <c r="AZ34" s="146"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="173"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="176"/>
+      <c r="Q34" s="174"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175"/>
+      <c r="Z34" s="175"/>
+      <c r="AA34" s="175"/>
+      <c r="AB34" s="175"/>
+      <c r="AC34" s="175"/>
+      <c r="AD34" s="175"/>
+      <c r="AE34" s="175"/>
+      <c r="AF34" s="175"/>
+      <c r="AG34" s="175"/>
+      <c r="AH34" s="175"/>
+      <c r="AI34" s="175"/>
+      <c r="AJ34" s="175"/>
+      <c r="AK34" s="175"/>
+      <c r="AL34" s="176"/>
+      <c r="AM34" s="174"/>
+      <c r="AN34" s="175"/>
+      <c r="AO34" s="175"/>
+      <c r="AP34" s="175"/>
+      <c r="AQ34" s="175"/>
+      <c r="AR34" s="175"/>
+      <c r="AS34" s="175"/>
+      <c r="AT34" s="175"/>
+      <c r="AU34" s="175"/>
+      <c r="AV34" s="175"/>
+      <c r="AW34" s="175"/>
+      <c r="AX34" s="175"/>
+      <c r="AY34" s="175"/>
+      <c r="AZ34" s="176"/>
     </row>
     <row r="35" spans="1:52">
       <c r="A35" s="87" t="str">
@@ -4733,59 +4697,189 @@
         <v/>
       </c>
       <c r="B35" s="88"/>
-      <c r="C35" s="138"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="144"/>
-      <c r="M35" s="145"/>
-      <c r="N35" s="145"/>
-      <c r="O35" s="145"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="144"/>
-      <c r="R35" s="145"/>
-      <c r="S35" s="145"/>
-      <c r="T35" s="145"/>
-      <c r="U35" s="145"/>
-      <c r="V35" s="145"/>
-      <c r="W35" s="145"/>
-      <c r="X35" s="145"/>
-      <c r="Y35" s="145"/>
-      <c r="Z35" s="145"/>
-      <c r="AA35" s="145"/>
-      <c r="AB35" s="145"/>
-      <c r="AC35" s="145"/>
-      <c r="AD35" s="145"/>
-      <c r="AE35" s="145"/>
-      <c r="AF35" s="145"/>
-      <c r="AG35" s="145"/>
-      <c r="AH35" s="145"/>
-      <c r="AI35" s="145"/>
-      <c r="AJ35" s="145"/>
-      <c r="AK35" s="145"/>
-      <c r="AL35" s="146"/>
-      <c r="AM35" s="144"/>
-      <c r="AN35" s="145"/>
-      <c r="AO35" s="145"/>
-      <c r="AP35" s="145"/>
-      <c r="AQ35" s="145"/>
-      <c r="AR35" s="145"/>
-      <c r="AS35" s="145"/>
-      <c r="AT35" s="145"/>
-      <c r="AU35" s="145"/>
-      <c r="AV35" s="145"/>
-      <c r="AW35" s="145"/>
-      <c r="AX35" s="145"/>
-      <c r="AY35" s="145"/>
-      <c r="AZ35" s="146"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="173"/>
+      <c r="L35" s="174"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="176"/>
+      <c r="Q35" s="174"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+      <c r="Y35" s="175"/>
+      <c r="Z35" s="175"/>
+      <c r="AA35" s="175"/>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="175"/>
+      <c r="AD35" s="175"/>
+      <c r="AE35" s="175"/>
+      <c r="AF35" s="175"/>
+      <c r="AG35" s="175"/>
+      <c r="AH35" s="175"/>
+      <c r="AI35" s="175"/>
+      <c r="AJ35" s="175"/>
+      <c r="AK35" s="175"/>
+      <c r="AL35" s="176"/>
+      <c r="AM35" s="174"/>
+      <c r="AN35" s="175"/>
+      <c r="AO35" s="175"/>
+      <c r="AP35" s="175"/>
+      <c r="AQ35" s="175"/>
+      <c r="AR35" s="175"/>
+      <c r="AS35" s="175"/>
+      <c r="AT35" s="175"/>
+      <c r="AU35" s="175"/>
+      <c r="AV35" s="175"/>
+      <c r="AW35" s="175"/>
+      <c r="AX35" s="175"/>
+      <c r="AY35" s="175"/>
+      <c r="AZ35" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="140">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="Q8:AL8"/>
+    <mergeCell ref="AM8:AZ8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="Q9:AL9"/>
+    <mergeCell ref="AM9:AZ9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="Q10:AL10"/>
+    <mergeCell ref="AM10:AZ10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:AL11"/>
+    <mergeCell ref="AM11:AZ11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="Q12:AL12"/>
+    <mergeCell ref="AM12:AZ12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:AL13"/>
+    <mergeCell ref="AM13:AZ13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="Q14:AL14"/>
+    <mergeCell ref="AM14:AZ14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="Q15:AL15"/>
+    <mergeCell ref="AM15:AZ15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="Q16:AL16"/>
+    <mergeCell ref="AM16:AZ16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="Q17:AL17"/>
+    <mergeCell ref="AM17:AZ17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:AL18"/>
+    <mergeCell ref="AM18:AZ18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:AL19"/>
+    <mergeCell ref="AM19:AZ19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:AL20"/>
+    <mergeCell ref="AM20:AZ20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:AL21"/>
+    <mergeCell ref="AM21:AZ21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:AL22"/>
+    <mergeCell ref="AM22:AZ22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:AL23"/>
+    <mergeCell ref="AM23:AZ23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:AL24"/>
+    <mergeCell ref="AM24:AZ24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:AL25"/>
+    <mergeCell ref="AM25:AZ25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:AL26"/>
+    <mergeCell ref="AM26:AZ26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:AL27"/>
+    <mergeCell ref="AM27:AZ27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:AL28"/>
+    <mergeCell ref="AM28:AZ28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:AL29"/>
+    <mergeCell ref="AM29:AZ29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:AL30"/>
+    <mergeCell ref="AM30:AZ30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:AL31"/>
+    <mergeCell ref="AM31:AZ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:AL32"/>
+    <mergeCell ref="AM32:AZ32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="Q33:AL33"/>
+    <mergeCell ref="AM33:AZ33"/>
     <mergeCell ref="C34:F34"/>
     <mergeCell ref="G34:K34"/>
     <mergeCell ref="L34:P34"/>
@@ -4796,136 +4890,6 @@
     <mergeCell ref="L35:P35"/>
     <mergeCell ref="Q35:AL35"/>
     <mergeCell ref="AM35:AZ35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:AL32"/>
-    <mergeCell ref="AM32:AZ32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="Q33:AL33"/>
-    <mergeCell ref="AM33:AZ33"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:AL30"/>
-    <mergeCell ref="AM30:AZ30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:AL31"/>
-    <mergeCell ref="AM31:AZ31"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:AL28"/>
-    <mergeCell ref="AM28:AZ28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:AL29"/>
-    <mergeCell ref="AM29:AZ29"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:AL26"/>
-    <mergeCell ref="AM26:AZ26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:AL27"/>
-    <mergeCell ref="AM27:AZ27"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:AL24"/>
-    <mergeCell ref="AM24:AZ24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:AL25"/>
-    <mergeCell ref="AM25:AZ25"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Q22:AL22"/>
-    <mergeCell ref="AM22:AZ22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:AL23"/>
-    <mergeCell ref="AM23:AZ23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="Q20:AL20"/>
-    <mergeCell ref="AM20:AZ20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="Q21:AL21"/>
-    <mergeCell ref="AM21:AZ21"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="Q18:AL18"/>
-    <mergeCell ref="AM18:AZ18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="Q19:AL19"/>
-    <mergeCell ref="AM19:AZ19"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="Q16:AL16"/>
-    <mergeCell ref="AM16:AZ16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="Q17:AL17"/>
-    <mergeCell ref="AM17:AZ17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="Q14:AL14"/>
-    <mergeCell ref="AM14:AZ14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="Q15:AL15"/>
-    <mergeCell ref="AM15:AZ15"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="Q12:AL12"/>
-    <mergeCell ref="AM12:AZ12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:AL13"/>
-    <mergeCell ref="AM13:AZ13"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="Q10:AL10"/>
-    <mergeCell ref="AM10:AZ10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="Q11:AL11"/>
-    <mergeCell ref="AM11:AZ11"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="Q8:AL8"/>
-    <mergeCell ref="AM8:AZ8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="Q9:AL9"/>
-    <mergeCell ref="AM9:AZ9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4942,7 +4906,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="124" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B6" sqref="B6:B15"/>
+      <selection pane="topRight" activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4951,11 +4915,11 @@
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="16" width="5" customWidth="1"/>
-    <col min="17" max="20" width="5.140625" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" customWidth="1"/>
-    <col min="22" max="23" width="5.140625" customWidth="1"/>
-    <col min="24" max="40" width="5.7109375" customWidth="1"/>
+    <col min="5" max="17" width="5" customWidth="1"/>
+    <col min="18" max="21" width="5.140625" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" customWidth="1"/>
+    <col min="23" max="24" width="5.140625" customWidth="1"/>
+    <col min="25" max="40" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="21" thickBot="1">
@@ -4980,60 +4944,60 @@
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:40" ht="21" thickTop="1">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="147">
+      <c r="D4" s="191"/>
+      <c r="E4" s="196">
         <v>2022</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="147">
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="197"/>
+      <c r="M4" s="197"/>
+      <c r="N4" s="197"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="198">
         <v>2023</v>
       </c>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="147">
+      <c r="R4" s="199"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="199"/>
+      <c r="V4" s="199"/>
+      <c r="W4" s="199"/>
+      <c r="X4" s="199"/>
+      <c r="Y4" s="199"/>
+      <c r="Z4" s="199"/>
+      <c r="AA4" s="199"/>
+      <c r="AB4" s="199"/>
+      <c r="AC4" s="181">
         <v>2024</v>
       </c>
-      <c r="AD4" s="148"/>
-      <c r="AE4" s="148"/>
-      <c r="AF4" s="148"/>
-      <c r="AG4" s="148"/>
-      <c r="AH4" s="148"/>
-      <c r="AI4" s="148"/>
-      <c r="AJ4" s="148"/>
-      <c r="AK4" s="148"/>
-      <c r="AL4" s="148"/>
-      <c r="AM4" s="148"/>
-      <c r="AN4" s="149"/>
+      <c r="AD4" s="182"/>
+      <c r="AE4" s="182"/>
+      <c r="AF4" s="182"/>
+      <c r="AG4" s="182"/>
+      <c r="AH4" s="182"/>
+      <c r="AI4" s="182"/>
+      <c r="AJ4" s="182"/>
+      <c r="AK4" s="182"/>
+      <c r="AL4" s="182"/>
+      <c r="AM4" s="182"/>
+      <c r="AN4" s="183"/>
     </row>
     <row r="5" spans="1:40" ht="21" thickBot="1">
-      <c r="B5" s="163"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="193"/>
       <c r="E5" s="34">
         <v>1</v>
       </c>
@@ -5144,10 +5108,10 @@
       </c>
     </row>
     <row r="6" spans="1:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="194" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="93" t="s">
@@ -5165,19 +5129,19 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="50"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="16"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="115"/>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="188"/>
-      <c r="Y6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="124"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="166"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="119"/>
       <c r="AD6" s="16"/>
       <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
@@ -5191,8 +5155,8 @@
       <c r="AN6" s="17"/>
     </row>
     <row r="7" spans="1:40" ht="18" customHeight="1">
-      <c r="B7" s="153"/>
-      <c r="C7" s="155"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="91" t="s">
         <v>13</v>
       </c>
@@ -5208,19 +5172,19 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="46"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="19"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="116"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="125"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="167"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="120"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
@@ -5234,8 +5198,8 @@
       <c r="AN7" s="20"/>
     </row>
     <row r="8" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="153"/>
-      <c r="C8" s="155" t="s">
+      <c r="B8" s="195"/>
+      <c r="C8" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="91" t="s">
@@ -5251,21 +5215,21 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="42"/>
-      <c r="O8" s="1"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="1"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="2"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="5"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
@@ -5279,8 +5243,8 @@
       <c r="AN8" s="4"/>
     </row>
     <row r="9" spans="1:40" ht="18" customHeight="1">
-      <c r="B9" s="153"/>
-      <c r="C9" s="155" t="s">
+      <c r="B9" s="195"/>
+      <c r="C9" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="91" t="s">
@@ -5298,19 +5262,19 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="46"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="19"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="116"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="189"/>
-      <c r="Y9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="125"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="167"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="120"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
@@ -5324,8 +5288,8 @@
       <c r="AN9" s="20"/>
     </row>
     <row r="10" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="153"/>
-      <c r="C10" s="155" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="91" t="s">
@@ -5342,20 +5306,20 @@
       <c r="M10" s="1"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="57"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="3"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="2"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
@@ -5369,8 +5333,8 @@
       <c r="AN10" s="4"/>
     </row>
     <row r="11" spans="1:40" ht="18" customHeight="1">
-      <c r="B11" s="153"/>
-      <c r="C11" s="155" t="s">
+      <c r="B11" s="195"/>
+      <c r="C11" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="91" t="s">
@@ -5388,19 +5352,19 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="46"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="19"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="116"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
-      <c r="W11" s="46"/>
-      <c r="X11" s="189"/>
-      <c r="Y11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="125"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="167"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="120"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
@@ -5414,8 +5378,8 @@
       <c r="AN11" s="20"/>
     </row>
     <row r="12" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="155"/>
-      <c r="C12" s="155" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="91" t="s">
@@ -5431,21 +5395,21 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="42"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="57"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="1"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="100"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="3"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="2"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="5"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
@@ -5459,8 +5423,8 @@
       <c r="AN12" s="4"/>
     </row>
     <row r="13" spans="1:40" ht="18" customHeight="1">
-      <c r="B13" s="155"/>
-      <c r="C13" s="155" t="s">
+      <c r="B13" s="186"/>
+      <c r="C13" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="91" t="s">
@@ -5478,19 +5442,19 @@
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
       <c r="P13" s="46"/>
-      <c r="Q13" s="172"/>
-      <c r="R13" s="19"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="116"/>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
       <c r="V13" s="19"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="189"/>
-      <c r="Y13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="125"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="167"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="120"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
@@ -5504,8 +5468,8 @@
       <c r="AN13" s="20"/>
     </row>
     <row r="14" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="155"/>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="186"/>
+      <c r="C14" s="187" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="91" t="s">
@@ -5522,20 +5486,20 @@
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="11"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="71"/>
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="47"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="10"/>
+      <c r="AB14" s="47"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
@@ -5549,8 +5513,8 @@
       <c r="AN14" s="12"/>
     </row>
     <row r="15" spans="1:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="157"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="90" t="s">
         <v>13</v>
       </c>
@@ -5567,18 +5531,18 @@
       <c r="O15" s="25"/>
       <c r="P15" s="51"/>
       <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
+      <c r="R15" s="117"/>
       <c r="S15" s="25"/>
       <c r="T15" s="25"/>
       <c r="U15" s="25"/>
       <c r="V15" s="25"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="51"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
       <c r="AA15" s="25"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="168"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="24"/>
       <c r="AD15" s="25"/>
       <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
@@ -5593,37 +5557,37 @@
     </row>
     <row r="16" spans="1:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B16" s="89"/>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="201"/>
+      <c r="E16" s="136"/>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
-      <c r="L16" s="202"/>
+      <c r="L16" s="137"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
       <c r="O16" s="28"/>
       <c r="P16" s="45"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="202"/>
-      <c r="T16" s="28"/>
+      <c r="Q16" s="136"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="137"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="72"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="139"/>
       <c r="Y16" s="72"/>
-      <c r="Z16" s="28"/>
+      <c r="Z16" s="72"/>
       <c r="AA16" s="28"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="170"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="136"/>
       <c r="AD16" s="28"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="28"/>
@@ -5638,8 +5602,8 @@
     </row>
     <row r="17" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B17" s="89"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="205" t="s">
+      <c r="C17" s="184"/>
+      <c r="D17" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="21"/>
@@ -5655,18 +5619,18 @@
       <c r="O17" s="22"/>
       <c r="P17" s="48"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="22"/>
+      <c r="R17" s="104"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="48"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
       <c r="AA17" s="22"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="104"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="21"/>
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="22"/>
@@ -5681,13 +5645,13 @@
     </row>
     <row r="18" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="89"/>
-      <c r="C18" s="199" t="s">
+      <c r="C18" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="170"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
@@ -5699,19 +5663,19 @@
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="45"/>
-      <c r="Q18" s="201"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="59"/>
+      <c r="Q18" s="136"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="60"/>
       <c r="Y18" s="59"/>
       <c r="Z18" s="59"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="170"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="136"/>
       <c r="AD18" s="28"/>
       <c r="AE18" s="28"/>
       <c r="AF18" s="28"/>
@@ -5726,8 +5690,8 @@
     </row>
     <row r="19" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B19" s="89"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="205" t="s">
+      <c r="C19" s="184"/>
+      <c r="D19" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="21"/>
@@ -5743,18 +5707,18 @@
       <c r="O19" s="22"/>
       <c r="P19" s="48"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="66"/>
+      <c r="R19" s="104"/>
       <c r="S19" s="66"/>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="22"/>
       <c r="Z19" s="66"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="23"/>
-      <c r="AC19" s="104"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="21"/>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
       <c r="AF19" s="22"/>
@@ -5769,13 +5733,13 @@
     </row>
     <row r="20" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B20" s="89"/>
-      <c r="C20" s="199" t="s">
+      <c r="C20" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="170"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -5787,19 +5751,19 @@
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="45"/>
-      <c r="Q20" s="201"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="44"/>
+      <c r="Q20" s="136"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="59"/>
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
-      <c r="W20" s="206"/>
-      <c r="X20" s="207"/>
-      <c r="Y20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="141"/>
+      <c r="Y20" s="142"/>
       <c r="Z20" s="44"/>
       <c r="AA20" s="44"/>
-      <c r="AB20" s="208"/>
-      <c r="AC20" s="209"/>
+      <c r="AB20" s="205"/>
+      <c r="AC20" s="138"/>
       <c r="AD20" s="44"/>
       <c r="AE20" s="28"/>
       <c r="AF20" s="28"/>
@@ -5814,8 +5778,8 @@
     </row>
     <row r="21" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="89"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="205" t="s">
+      <c r="C21" s="184"/>
+      <c r="D21" s="140" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="21"/>
@@ -5831,18 +5795,18 @@
       <c r="O21" s="22"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="21"/>
-      <c r="R21" s="22"/>
+      <c r="R21" s="104"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="48"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="22"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="104"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="21"/>
       <c r="AD21" s="22"/>
       <c r="AE21" s="22"/>
       <c r="AF21" s="22"/>
@@ -5856,10 +5820,10 @@
       <c r="AN21" s="23"/>
     </row>
     <row r="22" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="185" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="94" t="s">
@@ -5877,19 +5841,19 @@
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="45"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="44"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="61"/>
       <c r="U22" s="44"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="59"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="126"/>
+      <c r="Z22" s="97"/>
       <c r="AA22" s="59"/>
-      <c r="AB22" s="178"/>
-      <c r="AC22" s="170"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="136"/>
       <c r="AD22" s="28"/>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28"/>
@@ -5903,8 +5867,8 @@
       <c r="AN22" s="29"/>
     </row>
     <row r="23" spans="2:40" ht="18" customHeight="1">
-      <c r="B23" s="157"/>
-      <c r="C23" s="155"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="91" t="s">
         <v>13</v>
       </c>
@@ -5920,19 +5884,19 @@
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="P23" s="46"/>
-      <c r="Q23" s="179"/>
-      <c r="R23" s="61"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="201"/>
       <c r="S23" s="61"/>
       <c r="T23" s="61"/>
       <c r="U23" s="61"/>
       <c r="V23" s="61"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="98"/>
       <c r="AA23" s="61"/>
-      <c r="AB23" s="180"/>
-      <c r="AC23" s="167"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="120"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
@@ -5946,8 +5910,8 @@
       <c r="AN23" s="20"/>
     </row>
     <row r="24" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="157"/>
-      <c r="C24" s="155" t="s">
+      <c r="B24" s="178"/>
+      <c r="C24" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="91" t="s">
@@ -5965,19 +5929,19 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="63"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="202"/>
       <c r="S24" s="63"/>
       <c r="T24" s="63"/>
-      <c r="U24" s="42"/>
+      <c r="U24" s="63"/>
       <c r="V24" s="42"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="192"/>
-      <c r="Y24" s="99"/>
-      <c r="Z24" s="63"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="99"/>
       <c r="AA24" s="63"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="2"/>
+      <c r="AB24" s="206"/>
+      <c r="AC24" s="5"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
@@ -5991,8 +5955,8 @@
       <c r="AN24" s="4"/>
     </row>
     <row r="25" spans="2:40" ht="18" customHeight="1">
-      <c r="B25" s="157"/>
-      <c r="C25" s="155" t="s">
+      <c r="B25" s="178"/>
+      <c r="C25" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="91" t="s">
@@ -6010,19 +5974,19 @@
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="P25" s="46"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="61"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="201"/>
       <c r="S25" s="61"/>
       <c r="T25" s="61"/>
       <c r="U25" s="61"/>
       <c r="V25" s="61"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="127"/>
+      <c r="Z25" s="98"/>
       <c r="AA25" s="61"/>
-      <c r="AB25" s="180"/>
-      <c r="AC25" s="167"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="120"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
@@ -6036,8 +6000,8 @@
       <c r="AN25" s="20"/>
     </row>
     <row r="26" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="157"/>
-      <c r="C26" s="155" t="s">
+      <c r="B26" s="178"/>
+      <c r="C26" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="91" t="s">
@@ -6055,19 +6019,19 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="3"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="63"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="202"/>
       <c r="S26" s="63"/>
       <c r="T26" s="63"/>
       <c r="U26" s="63"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="193"/>
-      <c r="Y26" s="99"/>
-      <c r="Z26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="129"/>
+      <c r="Z26" s="99"/>
       <c r="AA26" s="63"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="2"/>
+      <c r="AB26" s="206"/>
+      <c r="AC26" s="5"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
@@ -6081,8 +6045,8 @@
       <c r="AN26" s="4"/>
     </row>
     <row r="27" spans="2:40" ht="18" customHeight="1">
-      <c r="B27" s="157"/>
-      <c r="C27" s="155" t="s">
+      <c r="B27" s="178"/>
+      <c r="C27" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="91" t="s">
@@ -6100,19 +6064,19 @@
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
       <c r="P27" s="46"/>
-      <c r="Q27" s="179"/>
-      <c r="R27" s="61"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="201"/>
       <c r="S27" s="61"/>
       <c r="T27" s="61"/>
       <c r="U27" s="61"/>
       <c r="V27" s="61"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="61"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="98"/>
       <c r="AA27" s="61"/>
-      <c r="AB27" s="180"/>
-      <c r="AC27" s="167"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="120"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
@@ -6126,8 +6090,8 @@
       <c r="AN27" s="20"/>
     </row>
     <row r="28" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="157"/>
-      <c r="C28" s="155" t="s">
+      <c r="B28" s="178"/>
+      <c r="C28" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="91" t="s">
@@ -6145,19 +6109,19 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="3"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="63"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="202"/>
       <c r="S28" s="63"/>
       <c r="T28" s="63"/>
       <c r="U28" s="63"/>
       <c r="V28" s="63"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="194"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="130"/>
+      <c r="Z28" s="100"/>
       <c r="AA28" s="63"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="2"/>
+      <c r="AB28" s="206"/>
+      <c r="AC28" s="5"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
@@ -6171,8 +6135,8 @@
       <c r="AN28" s="4"/>
     </row>
     <row r="29" spans="2:40" ht="18" customHeight="1">
-      <c r="B29" s="157"/>
-      <c r="C29" s="155" t="s">
+      <c r="B29" s="178"/>
+      <c r="C29" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="91" t="s">
@@ -6190,19 +6154,19 @@
       <c r="N29" s="19"/>
       <c r="O29" s="19"/>
       <c r="P29" s="46"/>
-      <c r="Q29" s="179"/>
-      <c r="R29" s="61"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="201"/>
       <c r="S29" s="61"/>
       <c r="T29" s="61"/>
       <c r="U29" s="61"/>
       <c r="V29" s="61"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="61"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="127"/>
+      <c r="Z29" s="98"/>
       <c r="AA29" s="61"/>
-      <c r="AB29" s="180"/>
-      <c r="AC29" s="167"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="120"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
@@ -6216,8 +6180,8 @@
       <c r="AN29" s="20"/>
     </row>
     <row r="30" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="157"/>
-      <c r="C30" s="155" t="s">
+      <c r="B30" s="178"/>
+      <c r="C30" s="186" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="91" t="s">
@@ -6235,19 +6199,19 @@
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="47"/>
-      <c r="Q30" s="183"/>
-      <c r="R30" s="64"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="203"/>
       <c r="S30" s="64"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
       <c r="V30" s="64"/>
-      <c r="W30" s="65"/>
-      <c r="X30" s="195"/>
-      <c r="Y30" s="101"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="184"/>
-      <c r="AC30" s="10"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="131"/>
+      <c r="Z30" s="101"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="52"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="11"/>
       <c r="AF30" s="11"/>
@@ -6261,8 +6225,8 @@
       <c r="AN30" s="12"/>
     </row>
     <row r="31" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="157"/>
-      <c r="C31" s="152" t="s">
+      <c r="B31" s="178"/>
+      <c r="C31" s="187" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="90" t="s">
@@ -6280,19 +6244,19 @@
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="48"/>
-      <c r="Q31" s="185"/>
-      <c r="R31" s="66"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="204"/>
       <c r="S31" s="66"/>
       <c r="T31" s="66"/>
       <c r="U31" s="66"/>
       <c r="V31" s="66"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="196"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="67"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="102"/>
       <c r="AA31" s="66"/>
-      <c r="AB31" s="186"/>
-      <c r="AC31" s="104"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="21"/>
       <c r="AD31" s="22"/>
       <c r="AE31" s="22"/>
       <c r="AF31" s="22"/>
@@ -6306,8 +6270,8 @@
       <c r="AN31" s="23"/>
     </row>
     <row r="32" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="157"/>
-      <c r="C32" s="150" t="s">
+      <c r="B32" s="178"/>
+      <c r="C32" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="92" t="s">
@@ -6324,26 +6288,26 @@
       <c r="M32" s="68"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
-      <c r="P32" s="165"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="68"/>
+      <c r="P32" s="114"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="30"/>
       <c r="S32" s="68"/>
       <c r="T32" s="68"/>
       <c r="U32" s="68"/>
       <c r="V32" s="68"/>
-      <c r="W32" s="69"/>
-      <c r="X32" s="197"/>
-      <c r="Y32" s="103"/>
-      <c r="Z32" s="53"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="69"/>
+      <c r="Y32" s="133"/>
+      <c r="Z32" s="103"/>
       <c r="AA32" s="53"/>
-      <c r="AB32" s="176"/>
-      <c r="AC32" s="30"/>
+      <c r="AB32" s="207"/>
+      <c r="AC32" s="123"/>
       <c r="AD32" s="31"/>
       <c r="AE32" s="31"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="31"/>
       <c r="AH32" s="31"/>
-      <c r="AI32" s="165"/>
+      <c r="AI32" s="114"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
@@ -6351,8 +6315,8 @@
       <c r="AN32" s="32"/>
     </row>
     <row r="33" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="151"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="6" t="s">
         <v>13</v>
       </c>
@@ -6369,18 +6333,18 @@
       <c r="O33" s="22"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="21"/>
-      <c r="R33" s="66"/>
+      <c r="R33" s="104"/>
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="U33" s="66"/>
       <c r="V33" s="66"/>
-      <c r="W33" s="67"/>
-      <c r="X33" s="196"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="102"/>
       <c r="AA33" s="66"/>
-      <c r="AB33" s="186"/>
-      <c r="AC33" s="104"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="21"/>
       <c r="AD33" s="22"/>
       <c r="AE33" s="22"/>
       <c r="AF33" s="22"/>
@@ -6394,8 +6358,8 @@
       <c r="AN33" s="23"/>
     </row>
     <row r="34" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="157"/>
-      <c r="C34" s="150" t="s">
+      <c r="B34" s="178"/>
+      <c r="C34" s="180" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="92" t="s">
@@ -6412,26 +6376,26 @@
       <c r="M34" s="68"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
-      <c r="P34" s="165"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="68"/>
+      <c r="P34" s="114"/>
+      <c r="Q34" s="123"/>
+      <c r="R34" s="30"/>
       <c r="S34" s="68"/>
       <c r="T34" s="68"/>
       <c r="U34" s="68"/>
       <c r="V34" s="68"/>
-      <c r="W34" s="69"/>
-      <c r="X34" s="197"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="69"/>
+      <c r="Y34" s="133"/>
+      <c r="Z34" s="103"/>
       <c r="AA34" s="68"/>
-      <c r="AB34" s="187"/>
-      <c r="AC34" s="169"/>
+      <c r="AB34" s="69"/>
+      <c r="AC34" s="208"/>
       <c r="AD34" s="31"/>
       <c r="AE34" s="31"/>
       <c r="AF34" s="31"/>
       <c r="AG34" s="31"/>
       <c r="AH34" s="31"/>
-      <c r="AI34" s="165"/>
+      <c r="AI34" s="114"/>
       <c r="AJ34" s="31"/>
       <c r="AK34" s="31"/>
       <c r="AL34" s="31"/>
@@ -6439,8 +6403,8 @@
       <c r="AN34" s="32"/>
     </row>
     <row r="35" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="157"/>
-      <c r="C35" s="151"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
@@ -6457,18 +6421,18 @@
       <c r="O35" s="22"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="21"/>
-      <c r="R35" s="66"/>
+      <c r="R35" s="104"/>
       <c r="S35" s="66"/>
       <c r="T35" s="66"/>
       <c r="U35" s="66"/>
       <c r="V35" s="66"/>
-      <c r="W35" s="67"/>
-      <c r="X35" s="196"/>
-      <c r="Y35" s="102"/>
-      <c r="Z35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="102"/>
       <c r="AA35" s="66"/>
-      <c r="AB35" s="23"/>
-      <c r="AC35" s="104"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="21"/>
       <c r="AD35" s="22"/>
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
@@ -6482,8 +6446,8 @@
       <c r="AN35" s="23"/>
     </row>
     <row r="36" spans="2:40" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B36" s="157"/>
-      <c r="C36" s="150" t="s">
+      <c r="B36" s="178"/>
+      <c r="C36" s="180" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="92" t="s">
@@ -6500,26 +6464,26 @@
       <c r="M36" s="68"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
-      <c r="P36" s="165"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="68"/>
+      <c r="P36" s="114"/>
+      <c r="Q36" s="123"/>
+      <c r="R36" s="30"/>
       <c r="S36" s="68"/>
       <c r="T36" s="68"/>
       <c r="U36" s="68"/>
       <c r="V36" s="68"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="197"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="68"/>
+      <c r="W36" s="68"/>
+      <c r="X36" s="69"/>
+      <c r="Y36" s="133"/>
+      <c r="Z36" s="103"/>
       <c r="AA36" s="68"/>
-      <c r="AB36" s="187"/>
-      <c r="AC36" s="169"/>
+      <c r="AB36" s="69"/>
+      <c r="AC36" s="138"/>
       <c r="AD36" s="53"/>
       <c r="AE36" s="31"/>
       <c r="AF36" s="31"/>
       <c r="AG36" s="31"/>
       <c r="AH36" s="31"/>
-      <c r="AI36" s="165"/>
+      <c r="AI36" s="114"/>
       <c r="AJ36" s="31"/>
       <c r="AK36" s="31"/>
       <c r="AL36" s="31"/>
@@ -6527,8 +6491,8 @@
       <c r="AN36" s="32"/>
     </row>
     <row r="37" spans="2:40" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
@@ -6545,17 +6509,17 @@
       <c r="O37" s="22"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="21"/>
-      <c r="R37" s="22"/>
+      <c r="R37" s="104"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="198"/>
-      <c r="Y37" s="104"/>
-      <c r="Z37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="134"/>
+      <c r="Z37" s="104"/>
       <c r="AA37" s="22"/>
-      <c r="AB37" s="23"/>
+      <c r="AB37" s="22"/>
       <c r="AC37" s="104"/>
       <c r="AD37" s="22"/>
       <c r="AE37" s="22"/>
@@ -6572,7 +6536,14 @@
     <row r="38" spans="2:40" ht="21" thickTop="1"/>
     <row r="39" spans="2:40" ht="15" customHeight="1"/>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="23">
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="Q4:AB4"/>
     <mergeCell ref="B32:B37"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C34:C35"/>
@@ -6589,14 +6560,6 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:P4"/>
-    <mergeCell ref="Q4:AB4"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6635,46 +6598,46 @@
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="2:28" ht="21" thickTop="1">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="158" t="s">
+      <c r="C4" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="159"/>
-      <c r="E4" s="147">
+      <c r="D4" s="191"/>
+      <c r="E4" s="181">
         <v>2022</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="147">
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
+      <c r="J4" s="182"/>
+      <c r="K4" s="182"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="182"/>
+      <c r="N4" s="182"/>
+      <c r="O4" s="182"/>
+      <c r="P4" s="182"/>
+      <c r="Q4" s="181">
         <v>2023</v>
       </c>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="148"/>
-      <c r="X4" s="148"/>
-      <c r="Y4" s="148"/>
-      <c r="Z4" s="148"/>
-      <c r="AA4" s="148"/>
-      <c r="AB4" s="149"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="182"/>
+      <c r="U4" s="182"/>
+      <c r="V4" s="182"/>
+      <c r="W4" s="182"/>
+      <c r="X4" s="182"/>
+      <c r="Y4" s="182"/>
+      <c r="Z4" s="182"/>
+      <c r="AA4" s="182"/>
+      <c r="AB4" s="183"/>
     </row>
     <row r="5" spans="2:28" ht="21" thickBot="1">
-      <c r="B5" s="163"/>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="B5" s="189"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="193"/>
       <c r="E5" s="34">
         <v>1</v>
       </c>
@@ -6749,10 +6712,10 @@
       </c>
     </row>
     <row r="6" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="156" t="s">
+      <c r="B6" s="194" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="194" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -6784,8 +6747,8 @@
       <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="18" customHeight="1">
-      <c r="B7" s="153"/>
-      <c r="C7" s="155"/>
+      <c r="B7" s="195"/>
+      <c r="C7" s="186"/>
       <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
@@ -6815,8 +6778,8 @@
       <c r="AB7" s="20"/>
     </row>
     <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B8" s="153"/>
-      <c r="C8" s="155" t="s">
+      <c r="B8" s="195"/>
+      <c r="C8" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -6848,8 +6811,8 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1">
-      <c r="B9" s="153"/>
-      <c r="C9" s="155" t="s">
+      <c r="B9" s="195"/>
+      <c r="C9" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -6881,8 +6844,8 @@
       <c r="AB9" s="20"/>
     </row>
     <row r="10" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B10" s="153"/>
-      <c r="C10" s="155" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -6914,8 +6877,8 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1">
-      <c r="B11" s="153"/>
-      <c r="C11" s="155" t="s">
+      <c r="B11" s="195"/>
+      <c r="C11" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -6947,8 +6910,8 @@
       <c r="AB11" s="20"/>
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B12" s="155"/>
-      <c r="C12" s="155" t="s">
+      <c r="B12" s="186"/>
+      <c r="C12" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -6980,8 +6943,8 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="2:28" ht="18" customHeight="1">
-      <c r="B13" s="155"/>
-      <c r="C13" s="155" t="s">
+      <c r="B13" s="186"/>
+      <c r="C13" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -7013,8 +6976,8 @@
       <c r="AB13" s="20"/>
     </row>
     <row r="14" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B14" s="155"/>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="186"/>
+      <c r="C14" s="187" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -7046,8 +7009,8 @@
       <c r="AB14" s="12"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="153"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="195"/>
       <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
@@ -7078,7 +7041,7 @@
     </row>
     <row r="16" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B16" s="58"/>
-      <c r="C16" s="152" t="s">
+      <c r="C16" s="187" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -7111,7 +7074,7 @@
     </row>
     <row r="17" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B17" s="58"/>
-      <c r="C17" s="153"/>
+      <c r="C17" s="195"/>
       <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
@@ -7142,7 +7105,7 @@
     </row>
     <row r="18" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B18" s="58"/>
-      <c r="C18" s="152" t="s">
+      <c r="C18" s="187" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -7175,7 +7138,7 @@
     </row>
     <row r="19" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B19" s="58"/>
-      <c r="C19" s="153"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
@@ -7206,7 +7169,7 @@
     </row>
     <row r="20" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
       <c r="B20" s="58"/>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="187" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="13" t="s">
@@ -7239,7 +7202,7 @@
     </row>
     <row r="21" spans="2:28" ht="18" customHeight="1" thickBot="1">
       <c r="B21" s="58"/>
-      <c r="C21" s="151"/>
+      <c r="C21" s="179"/>
       <c r="D21" s="6" t="s">
         <v>13</v>
       </c>
@@ -7269,10 +7232,10 @@
       <c r="AB21" s="23"/>
     </row>
     <row r="22" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="154" t="s">
+      <c r="B22" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="185" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -7304,8 +7267,8 @@
       <c r="AB22" s="29"/>
     </row>
     <row r="23" spans="2:28" ht="18" customHeight="1">
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
       <c r="D23" s="8" t="s">
         <v>13</v>
       </c>
@@ -7335,8 +7298,8 @@
       <c r="AB23" s="20"/>
     </row>
     <row r="24" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B24" s="155"/>
-      <c r="C24" s="155" t="s">
+      <c r="B24" s="186"/>
+      <c r="C24" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7368,8 +7331,8 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="2:28" ht="18" customHeight="1">
-      <c r="B25" s="155"/>
-      <c r="C25" s="155" t="s">
+      <c r="B25" s="186"/>
+      <c r="C25" s="186" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -7401,8 +7364,8 @@
       <c r="AB25" s="20"/>
     </row>
     <row r="26" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B26" s="155"/>
-      <c r="C26" s="155" t="s">
+      <c r="B26" s="186"/>
+      <c r="C26" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="8" t="s">
@@ -7434,8 +7397,8 @@
       <c r="AB26" s="4"/>
     </row>
     <row r="27" spans="2:28" ht="18" customHeight="1">
-      <c r="B27" s="155"/>
-      <c r="C27" s="155" t="s">
+      <c r="B27" s="186"/>
+      <c r="C27" s="186" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -7467,8 +7430,8 @@
       <c r="AB27" s="20"/>
     </row>
     <row r="28" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B28" s="155"/>
-      <c r="C28" s="155" t="s">
+      <c r="B28" s="186"/>
+      <c r="C28" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -7500,8 +7463,8 @@
       <c r="AB28" s="4"/>
     </row>
     <row r="29" spans="2:28" ht="18" customHeight="1">
-      <c r="B29" s="155"/>
-      <c r="C29" s="155" t="s">
+      <c r="B29" s="186"/>
+      <c r="C29" s="186" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -7533,8 +7496,8 @@
       <c r="AB29" s="20"/>
     </row>
     <row r="30" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B30" s="155"/>
-      <c r="C30" s="155" t="s">
+      <c r="B30" s="186"/>
+      <c r="C30" s="186" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -7566,8 +7529,8 @@
       <c r="AB30" s="12"/>
     </row>
     <row r="31" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B31" s="152"/>
-      <c r="C31" s="152" t="s">
+      <c r="B31" s="187"/>
+      <c r="C31" s="187" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -7599,10 +7562,10 @@
       <c r="AB31" s="23"/>
     </row>
     <row r="32" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="180" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="13" t="s">
@@ -7634,8 +7597,8 @@
       <c r="AB32" s="32"/>
     </row>
     <row r="33" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B33" s="157"/>
-      <c r="C33" s="151"/>
+      <c r="B33" s="178"/>
+      <c r="C33" s="179"/>
       <c r="D33" s="6" t="s">
         <v>13</v>
       </c>
@@ -7665,8 +7628,8 @@
       <c r="AB33" s="23"/>
     </row>
     <row r="34" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="157"/>
-      <c r="C34" s="150" t="s">
+      <c r="B34" s="178"/>
+      <c r="C34" s="180" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -7698,8 +7661,8 @@
       <c r="AB34" s="32"/>
     </row>
     <row r="35" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B35" s="157"/>
-      <c r="C35" s="151"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
@@ -7729,8 +7692,8 @@
       <c r="AB35" s="23"/>
     </row>
     <row r="36" spans="2:28" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B36" s="157"/>
-      <c r="C36" s="150" t="s">
+      <c r="B36" s="178"/>
+      <c r="C36" s="180" t="s">
         <v>16</v>
       </c>
       <c r="D36" s="13" t="s">
@@ -7762,8 +7725,8 @@
       <c r="AB36" s="32"/>
     </row>
     <row r="37" spans="2:28" ht="18" customHeight="1" thickBot="1">
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
       <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
@@ -7805,14 +7768,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="B6:B15"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B4:B5"/>
     <mergeCell ref="Q4:AB4"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C14:C15"/>
@@ -7828,6 +7783,14 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B22:B31"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
